--- a/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="16572" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="16575" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0">
+    <comment ref="X7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0">
+    <comment ref="Z7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0">
+    <comment ref="AD7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -484,12 +484,69 @@
   </si>
   <si>
     <t>Chị Hà</t>
+  </si>
+  <si>
+    <t>Chị Yến thanh trì</t>
+  </si>
+  <si>
+    <t>Chị Quân dịch vọng</t>
+  </si>
+  <si>
+    <t>Chị Tâm</t>
+  </si>
+  <si>
+    <t>Chị trường hải phòng</t>
+  </si>
+  <si>
+    <t>Dung phi</t>
+  </si>
+  <si>
+    <t>Thanh Hòa</t>
+  </si>
+  <si>
+    <t>Chị Thúy</t>
+  </si>
+  <si>
+    <t>Cường Oanh</t>
+  </si>
+  <si>
+    <t>Chị Xuân</t>
+  </si>
+  <si>
+    <t>Chị Hảo</t>
+  </si>
+  <si>
+    <t>Chị phương yên châu</t>
+  </si>
+  <si>
+    <t>Hằng kế toán</t>
+  </si>
+  <si>
+    <t>Em huệ điện biên</t>
+  </si>
+  <si>
+    <t>Anh thưởng</t>
+  </si>
+  <si>
+    <t>Chị tuyết sài gòn</t>
+  </si>
+  <si>
+    <t>Anh tùng ctv</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Anh Minh gia lâm</t>
+  </si>
+  <si>
+    <t>Tuyết Nhung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -869,6 +926,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -887,104 +1037,11 @@
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,6 +1053,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1044,7 +1104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,7 +1139,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,45 +1350,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="6" customWidth="1"/>
-    <col min="7" max="13" width="3.33203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
+    <col min="7" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1364,11 +1425,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1404,235 +1465,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
+      <c r="A4" s="59">
         <v>43890</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="93"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="83" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="84" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="85" t="s">
+      <c r="K7" s="55"/>
+      <c r="L7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="66"/>
+      <c r="N7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="55"/>
+      <c r="P7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="55"/>
+      <c r="T7" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="75"/>
+      <c r="V7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="55"/>
+      <c r="X7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="73" t="s">
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="74"/>
+      <c r="AH7" s="55"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1717,9 +1778,9 @@
       <c r="AE8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="74"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="55"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -2182,7 +2243,9 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="S17" s="30">
+        <v>20</v>
+      </c>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
       <c r="V17" s="30"/>
@@ -2197,7 +2260,7 @@
       <c r="AE17" s="30"/>
       <c r="AF17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="20">
         <f t="shared" si="1"/>
@@ -2207,8 +2270,12 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="29">
+        <v>43901</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -2236,10 +2303,12 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
+      <c r="AE18" s="30">
+        <v>3</v>
+      </c>
       <c r="AF18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="20">
         <f t="shared" si="1"/>
@@ -2249,12 +2318,18 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="29">
+        <v>43902</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30">
+        <v>2</v>
+      </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="30"/>
@@ -2281,7 +2356,7 @@
       <c r="AE19" s="30"/>
       <c r="AF19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="20">
         <f t="shared" si="1"/>
@@ -2291,14 +2366,20 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="29">
+        <v>43903</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="33"/>
@@ -2314,7 +2395,9 @@
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
+      <c r="Y20" s="36">
+        <v>3</v>
+      </c>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
       <c r="AB20" s="37"/>
@@ -2323,7 +2406,7 @@
       <c r="AE20" s="30"/>
       <c r="AF20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG20" s="20">
         <f t="shared" si="1"/>
@@ -2333,8 +2416,12 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="29">
+        <v>43903</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="30"/>
@@ -2350,13 +2437,17 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
+      <c r="S21" s="30">
+        <v>24</v>
+      </c>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
       <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
+      <c r="Y21" s="36">
+        <v>12</v>
+      </c>
       <c r="Z21" s="30"/>
       <c r="AA21" s="30"/>
       <c r="AB21" s="37"/>
@@ -2365,7 +2456,7 @@
       <c r="AE21" s="30"/>
       <c r="AF21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG21" s="20">
         <f t="shared" si="1"/>
@@ -2375,8 +2466,12 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="29">
+        <v>43904</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30"/>
@@ -2388,7 +2483,9 @@
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="O22" s="30">
+        <v>1</v>
+      </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
       <c r="R22" s="30"/>
@@ -2407,7 +2504,7 @@
       <c r="AE22" s="30"/>
       <c r="AF22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="20">
         <f t="shared" si="1"/>
@@ -2417,16 +2514,24 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="29">
+        <v>43904</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="30">
+        <v>24</v>
+      </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="30">
+        <v>12</v>
+      </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="30"/>
@@ -2449,7 +2554,7 @@
       <c r="AE23" s="30"/>
       <c r="AF23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG23" s="20">
         <f t="shared" si="1"/>
@@ -2459,16 +2564,24 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="29">
+        <v>43904</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="30">
+        <v>24</v>
+      </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="30">
+        <v>12</v>
+      </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="30"/>
@@ -2491,7 +2604,7 @@
       <c r="AE24" s="30"/>
       <c r="AF24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG24" s="20">
         <f t="shared" si="1"/>
@@ -2501,8 +2614,12 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="29">
+        <v>43904</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="30"/>
@@ -2510,7 +2627,9 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="30">
+        <v>12</v>
+      </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="30"/>
@@ -2518,13 +2637,17 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
+      <c r="S25" s="30">
+        <v>12</v>
+      </c>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
       <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
+      <c r="Y25" s="36">
+        <v>12</v>
+      </c>
       <c r="Z25" s="30"/>
       <c r="AA25" s="30"/>
       <c r="AB25" s="37"/>
@@ -2533,7 +2656,7 @@
       <c r="AE25" s="30"/>
       <c r="AF25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG25" s="20">
         <f t="shared" si="1"/>
@@ -2543,12 +2666,18 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="29">
+        <v>43906</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="30">
+        <v>12</v>
+      </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="30"/>
@@ -2575,7 +2704,7 @@
       <c r="AE26" s="30"/>
       <c r="AF26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG26" s="20">
         <f t="shared" si="1"/>
@@ -2585,8 +2714,12 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="29">
+        <v>43907</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="30"/>
@@ -2608,7 +2741,9 @@
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
+      <c r="Y27" s="36">
+        <v>2</v>
+      </c>
       <c r="Z27" s="30"/>
       <c r="AA27" s="30"/>
       <c r="AB27" s="37"/>
@@ -2617,7 +2752,7 @@
       <c r="AE27" s="30"/>
       <c r="AF27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="20">
         <f t="shared" si="1"/>
@@ -2627,12 +2762,18 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="29">
+        <v>43907</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="30">
+        <v>24</v>
+      </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="30"/>
@@ -2659,7 +2800,7 @@
       <c r="AE28" s="30"/>
       <c r="AF28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="1"/>
@@ -2669,8 +2810,12 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="29">
+        <v>43907</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" s="30"/>
@@ -2678,7 +2823,9 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="K29" s="30">
+        <v>1</v>
+      </c>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="30"/>
@@ -2692,7 +2839,9 @@
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
       <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
+      <c r="Y29" s="36">
+        <v>2</v>
+      </c>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
       <c r="AB29" s="37"/>
@@ -2701,7 +2850,7 @@
       <c r="AE29" s="30"/>
       <c r="AF29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="20">
         <f t="shared" si="1"/>
@@ -2711,10 +2860,16 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="29">
+        <v>43908</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="32"/>
@@ -2726,7 +2881,9 @@
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="34">
+        <v>1</v>
+      </c>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="35"/>
@@ -2734,7 +2891,9 @@
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
+      <c r="Y30" s="36">
+        <v>1</v>
+      </c>
       <c r="Z30" s="30"/>
       <c r="AA30" s="30"/>
       <c r="AB30" s="37"/>
@@ -2743,7 +2902,7 @@
       <c r="AE30" s="30"/>
       <c r="AF30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="20">
         <f t="shared" si="1"/>
@@ -2753,12 +2912,18 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="29">
+        <v>43908</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="30">
+        <v>1</v>
+      </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="30"/>
@@ -2785,7 +2950,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="20">
         <f t="shared" si="1"/>
@@ -2795,12 +2960,20 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="29">
+        <v>43908</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="31">
+        <v>18</v>
+      </c>
       <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="30">
+        <v>3</v>
+      </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="30"/>
@@ -2827,7 +3000,7 @@
       <c r="AE32" s="30"/>
       <c r="AF32" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG32" s="20">
         <f t="shared" si="1"/>
@@ -2839,16 +3012,24 @@
       <c r="A33" s="38">
         <v>12</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="29">
+        <v>43909</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="30">
+        <v>1</v>
+      </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="K33" s="30">
+        <v>1</v>
+      </c>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="30"/>
@@ -2860,7 +3041,9 @@
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
       <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="W33" s="30">
+        <v>1</v>
+      </c>
       <c r="X33" s="36"/>
       <c r="Y33" s="36"/>
       <c r="Z33" s="30"/>
@@ -2871,7 +3054,7 @@
       <c r="AE33" s="30"/>
       <c r="AF33" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="20">
         <f t="shared" si="1"/>
@@ -2883,12 +3066,18 @@
       <c r="A34" s="20">
         <v>13</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="29">
+        <v>43909</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="G34" s="30">
+        <v>1</v>
+      </c>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="30"/>
@@ -2915,7 +3104,7 @@
       <c r="AE34" s="30"/>
       <c r="AF34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="20">
         <f t="shared" si="1"/>
@@ -2927,12 +3116,18 @@
       <c r="A35" s="38">
         <v>14</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="29">
+        <v>43912</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="30">
+        <v>6</v>
+      </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="30"/>
@@ -2944,7 +3139,9 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="S35" s="30">
+        <v>3</v>
+      </c>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="30"/>
@@ -2952,14 +3149,16 @@
       <c r="X35" s="36"/>
       <c r="Y35" s="36"/>
       <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
+      <c r="AA35" s="30">
+        <v>3</v>
+      </c>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30"/>
       <c r="AF35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG35" s="20">
         <f t="shared" si="1"/>
@@ -2971,8 +3170,12 @@
       <c r="A36" s="20">
         <v>15</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="29">
+        <v>43913</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
       <c r="F36" s="30"/>
@@ -2988,7 +3191,9 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
+      <c r="S36" s="30">
+        <v>3</v>
+      </c>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
       <c r="V36" s="30"/>
@@ -3003,7 +3208,7 @@
       <c r="AE36" s="30"/>
       <c r="AF36" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG36" s="20">
         <f t="shared" si="1"/>
@@ -3015,16 +3220,24 @@
       <c r="A37" s="38">
         <v>16</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="29">
+        <v>43913</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="30">
+        <v>10</v>
+      </c>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="K37" s="30">
+        <v>2</v>
+      </c>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="30"/>
@@ -3042,12 +3255,14 @@
       <c r="Z37" s="30"/>
       <c r="AA37" s="30"/>
       <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
+      <c r="AC37" s="37">
+        <v>5</v>
+      </c>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG37" s="20">
         <f t="shared" si="1"/>
@@ -3059,16 +3274,24 @@
       <c r="A38" s="20">
         <v>17</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="29">
+        <v>43914</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="30">
+        <v>24</v>
+      </c>
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="K38" s="30">
+        <v>12</v>
+      </c>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="30"/>
@@ -3076,11 +3299,15 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
       <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="S38" s="30">
+        <v>12</v>
+      </c>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
       <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
+      <c r="W38" s="30">
+        <v>12</v>
+      </c>
       <c r="X38" s="36"/>
       <c r="Y38" s="36"/>
       <c r="Z38" s="30"/>
@@ -3091,7 +3318,7 @@
       <c r="AE38" s="30"/>
       <c r="AF38" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG38" s="20">
         <f t="shared" si="1"/>
@@ -3103,8 +3330,12 @@
       <c r="A39" s="38">
         <v>18</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="29">
+        <v>43913</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="30"/>
@@ -3112,7 +3343,9 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="K39" s="30">
+        <v>24</v>
+      </c>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="30"/>
@@ -3120,7 +3353,9 @@
       <c r="P39" s="34"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
+      <c r="S39" s="30">
+        <v>24</v>
+      </c>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="30"/>
@@ -3135,7 +3370,7 @@
       <c r="AE39" s="30"/>
       <c r="AF39" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG39" s="20">
         <f t="shared" si="1"/>
@@ -3147,8 +3382,12 @@
       <c r="A40" s="20">
         <v>19</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="29">
+        <v>43914</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="30"/>
@@ -3174,12 +3413,14 @@
       <c r="Z40" s="30"/>
       <c r="AA40" s="30"/>
       <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
+      <c r="AC40" s="37">
+        <v>5</v>
+      </c>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30"/>
       <c r="AF40" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG40" s="20">
         <f t="shared" si="1"/>
@@ -3191,12 +3432,18 @@
       <c r="A41" s="38">
         <v>20</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="29">
+        <v>43914</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
+      <c r="G41" s="30">
+        <v>36</v>
+      </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="30"/>
@@ -3223,7 +3470,7 @@
       <c r="AE41" s="30"/>
       <c r="AF41" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG41" s="20">
         <f t="shared" si="1"/>
@@ -3235,39 +3482,63 @@
       <c r="A42" s="20">
         <v>21</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="29">
+        <v>43915</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="30">
+        <v>12</v>
+      </c>
       <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="I42" s="32">
+        <v>24</v>
+      </c>
       <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="K42" s="30">
+        <v>12</v>
+      </c>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
+      <c r="O42" s="30">
+        <v>24</v>
+      </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="34"/>
       <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
+      <c r="S42" s="30">
+        <v>36</v>
+      </c>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
       <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
+      <c r="W42" s="30">
+        <v>24</v>
+      </c>
       <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
+      <c r="Y42" s="36">
+        <v>36</v>
+      </c>
       <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
+      <c r="AA42" s="30">
+        <v>12</v>
+      </c>
       <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
+      <c r="AC42" s="37">
+        <v>72</v>
+      </c>
       <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
+      <c r="AE42" s="30">
+        <v>56</v>
+      </c>
       <c r="AF42" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AG42" s="20">
         <f t="shared" si="1"/>
@@ -3279,8 +3550,12 @@
       <c r="A43" s="38">
         <v>22</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="29">
+        <v>43915</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
       <c r="F43" s="30"/>
@@ -3304,14 +3579,18 @@
       <c r="X43" s="36"/>
       <c r="Y43" s="36"/>
       <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
+      <c r="AA43" s="30">
+        <v>12</v>
+      </c>
       <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
+      <c r="AC43" s="37">
+        <v>24</v>
+      </c>
       <c r="AD43" s="30"/>
       <c r="AE43" s="30"/>
       <c r="AF43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG43" s="20">
         <f t="shared" si="1"/>
@@ -3323,8 +3602,12 @@
       <c r="A44" s="20">
         <v>23</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="29">
+        <v>43917</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
       <c r="F44" s="30"/>
@@ -3348,14 +3631,16 @@
       <c r="X44" s="36"/>
       <c r="Y44" s="36"/>
       <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
+      <c r="AA44" s="30">
+        <v>2</v>
+      </c>
       <c r="AB44" s="37"/>
       <c r="AC44" s="37"/>
       <c r="AD44" s="30"/>
       <c r="AE44" s="30"/>
       <c r="AF44" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG44" s="20">
         <f t="shared" si="1"/>
@@ -3367,8 +3652,12 @@
       <c r="A45" s="38">
         <v>24</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="29">
+        <v>43917</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" s="30"/>
@@ -3380,11 +3669,15 @@
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
+      <c r="O45" s="30">
+        <v>1</v>
+      </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="34"/>
       <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
+      <c r="S45" s="30">
+        <v>1</v>
+      </c>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
       <c r="V45" s="30"/>
@@ -3399,7 +3692,7 @@
       <c r="AE45" s="30"/>
       <c r="AF45" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45" s="20">
         <f t="shared" si="1"/>
@@ -3411,12 +3704,18 @@
       <c r="A46" s="20">
         <v>25</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
+      <c r="B46" s="29">
+        <v>43921</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
+      <c r="G46" s="30">
+        <v>1</v>
+      </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="30"/>
@@ -3434,7 +3733,9 @@
       <c r="V46" s="30"/>
       <c r="W46" s="30"/>
       <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
+      <c r="Y46" s="36">
+        <v>1</v>
+      </c>
       <c r="Z46" s="30"/>
       <c r="AA46" s="30"/>
       <c r="AB46" s="37"/>
@@ -3443,7 +3744,7 @@
       <c r="AE46" s="30"/>
       <c r="AF46" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG46" s="20">
         <f t="shared" si="1"/>
@@ -3455,35 +3756,57 @@
       <c r="A47" s="38">
         <v>26</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="29">
+        <v>43919</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
-      <c r="F47" s="30"/>
+      <c r="F47" s="30">
+        <v>1</v>
+      </c>
       <c r="G47" s="30"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="30"/>
+      <c r="J47" s="30">
+        <v>1</v>
+      </c>
       <c r="K47" s="30"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="30">
+        <v>1</v>
+      </c>
       <c r="O47" s="30"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="34"/>
-      <c r="R47" s="30"/>
+      <c r="R47" s="30">
+        <v>1</v>
+      </c>
       <c r="S47" s="30"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
-      <c r="V47" s="30"/>
+      <c r="V47" s="30">
+        <v>1</v>
+      </c>
       <c r="W47" s="30"/>
-      <c r="X47" s="36"/>
+      <c r="X47" s="36">
+        <v>1</v>
+      </c>
       <c r="Y47" s="36"/>
-      <c r="Z47" s="30"/>
+      <c r="Z47" s="30">
+        <v>1</v>
+      </c>
       <c r="AA47" s="30"/>
-      <c r="AB47" s="37"/>
+      <c r="AB47" s="37">
+        <v>1</v>
+      </c>
       <c r="AC47" s="37"/>
-      <c r="AD47" s="30"/>
+      <c r="AD47" s="30">
+        <v>1</v>
+      </c>
       <c r="AE47" s="30"/>
       <c r="AF47" s="20">
         <f t="shared" si="0"/>
@@ -3491,7 +3814,7 @@
       </c>
       <c r="AG47" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH47" s="30"/>
     </row>
@@ -3499,11 +3822,19 @@
       <c r="A48" s="20">
         <v>27</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
+      <c r="B48" s="29">
+        <v>43908</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="31">
+        <v>19</v>
+      </c>
       <c r="E48" s="31"/>
-      <c r="F48" s="30"/>
+      <c r="F48" s="30">
+        <v>4</v>
+      </c>
       <c r="G48" s="30"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -3525,7 +3856,9 @@
       <c r="Y48" s="36"/>
       <c r="Z48" s="30"/>
       <c r="AA48" s="30"/>
-      <c r="AB48" s="37"/>
+      <c r="AB48" s="37">
+        <v>24</v>
+      </c>
       <c r="AC48" s="37"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="30"/>
@@ -3535,7 +3868,7 @@
       </c>
       <c r="AG48" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AH48" s="30"/>
     </row>
@@ -3543,23 +3876,35 @@
       <c r="A49" s="38">
         <v>28</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="29">
+        <v>43864</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="32"/>
+      <c r="H49" s="32">
+        <v>16</v>
+      </c>
       <c r="I49" s="32"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="30">
+        <v>28</v>
+      </c>
       <c r="K49" s="30"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
-      <c r="N49" s="30"/>
+      <c r="N49" s="30">
+        <v>65</v>
+      </c>
       <c r="O49" s="30"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="34"/>
-      <c r="R49" s="30"/>
+      <c r="R49" s="30">
+        <v>18</v>
+      </c>
       <c r="S49" s="30"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
@@ -3579,7 +3924,7 @@
       </c>
       <c r="AG49" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AH49" s="30"/>
     </row>
@@ -3587,8 +3932,12 @@
       <c r="A50" s="20">
         <v>29</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="29">
+        <v>43891</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>34</v>
+      </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" s="30"/>
@@ -3615,7 +3964,9 @@
       <c r="AA50" s="30"/>
       <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
-      <c r="AD50" s="30"/>
+      <c r="AD50" s="30">
+        <v>30</v>
+      </c>
       <c r="AE50" s="30"/>
       <c r="AF50" s="20">
         <f t="shared" si="0"/>
@@ -3623,7 +3974,7 @@
       </c>
       <c r="AG50" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH50" s="30"/>
     </row>
@@ -3853,83 +4204,83 @@
       <c r="C56" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="77">
+      <c r="D56" s="70">
         <f>SUM(D9:D55)-SUM(E9:E55)</f>
         <v>-12</v>
       </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="64">
+      <c r="E56" s="70"/>
+      <c r="F56" s="71">
         <f>SUM(F9:F55)-SUM(G9:G55)</f>
-        <v>98</v>
-      </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="78">
+        <v>-78</v>
+      </c>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72">
         <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>74</v>
-      </c>
-      <c r="I56" s="78"/>
-      <c r="J56" s="64">
+        <v>65</v>
+      </c>
+      <c r="I56" s="72"/>
+      <c r="J56" s="71">
         <f>SUM(J9:J55)-SUM(K9:K55)</f>
-        <v>-7</v>
-      </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="79">
+        <v>-66</v>
+      </c>
+      <c r="K56" s="71"/>
+      <c r="L56" s="73">
         <f>SUM(L9:L55)-SUM(M9:M55)</f>
         <v>15</v>
       </c>
-      <c r="M56" s="79"/>
-      <c r="N56" s="64">
+      <c r="M56" s="73"/>
+      <c r="N56" s="71">
         <f>SUM(N9:N55)-SUM(O9:O55)</f>
-        <v>-43</v>
-      </c>
-      <c r="O56" s="64"/>
-      <c r="P56" s="70">
+        <v>-3</v>
+      </c>
+      <c r="O56" s="71"/>
+      <c r="P56" s="83">
         <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
-        <v>13</v>
-      </c>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="64">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="71">
         <f>SUM(R9:R55)-SUM(S9:S55)</f>
-        <v>159</v>
-      </c>
-      <c r="S56" s="64"/>
-      <c r="T56" s="71">
+        <v>43</v>
+      </c>
+      <c r="S56" s="71"/>
+      <c r="T56" s="84">
         <f>SUM(T9:T55)-SUM(U9:U55)</f>
         <v>52</v>
       </c>
-      <c r="U56" s="71"/>
-      <c r="V56" s="64">
+      <c r="U56" s="84"/>
+      <c r="V56" s="71">
         <f>SUM(V9:V55)-SUM(W9:W55)</f>
-        <v>31</v>
-      </c>
-      <c r="W56" s="64"/>
-      <c r="X56" s="72">
+        <v>-5</v>
+      </c>
+      <c r="W56" s="71"/>
+      <c r="X56" s="85">
         <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>422</v>
-      </c>
-      <c r="Y56" s="72"/>
-      <c r="Z56" s="64">
+        <v>354</v>
+      </c>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="71">
         <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
-        <v>22</v>
-      </c>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="65">
+        <v>-6</v>
+      </c>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="77">
         <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>-179</v>
-      </c>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="64">
+        <v>-260</v>
+      </c>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="71">
         <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
-        <v>-32</v>
-      </c>
-      <c r="AE56" s="64"/>
+        <v>-60</v>
+      </c>
+      <c r="AE56" s="71"/>
       <c r="AF56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG56" s="20">
         <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>613</v>
+        <v>51</v>
       </c>
       <c r="AH56" s="51"/>
     </row>
@@ -3939,164 +4290,205 @@
       <c r="C57" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="66">
+      <c r="D57" s="78">
         <f>D56/24</f>
         <v>-0.5</v>
       </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="61">
+      <c r="E57" s="78"/>
+      <c r="F57" s="79">
         <f>F56/12</f>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="67">
+        <v>-6.5</v>
+      </c>
+      <c r="G57" s="79"/>
+      <c r="H57" s="80">
         <f>H56/24</f>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="I57" s="67"/>
-      <c r="J57" s="61">
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="I57" s="80"/>
+      <c r="J57" s="79">
         <f>J56/12</f>
-        <v>-0.58333333333333337</v>
-      </c>
-      <c r="K57" s="61"/>
-      <c r="L57" s="68">
+        <v>-5.5</v>
+      </c>
+      <c r="K57" s="79"/>
+      <c r="L57" s="81">
         <f>L56/24</f>
         <v>0.625</v>
       </c>
-      <c r="M57" s="68"/>
-      <c r="N57" s="61">
+      <c r="M57" s="81"/>
+      <c r="N57" s="79">
         <f>N56/12</f>
-        <v>-3.5833333333333335</v>
-      </c>
-      <c r="O57" s="61"/>
-      <c r="P57" s="69">
+        <v>-0.25</v>
+      </c>
+      <c r="O57" s="79"/>
+      <c r="P57" s="82">
         <f>P56/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="79">
         <f>R56/12</f>
-        <v>13.25</v>
-      </c>
-      <c r="S57" s="61"/>
-      <c r="T57" s="60">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="S57" s="79"/>
+      <c r="T57" s="91">
         <f>T56/24</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="U57" s="60"/>
-      <c r="V57" s="61">
+      <c r="U57" s="91"/>
+      <c r="V57" s="79">
         <f>V56/12</f>
-        <v>2.5833333333333335</v>
-      </c>
-      <c r="W57" s="61"/>
-      <c r="X57" s="62">
+        <v>-0.41666666666666669</v>
+      </c>
+      <c r="W57" s="79"/>
+      <c r="X57" s="92">
         <f>X56/12</f>
-        <v>35.166666666666664</v>
-      </c>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="61">
+        <v>29.5</v>
+      </c>
+      <c r="Y57" s="92"/>
+      <c r="Z57" s="79">
         <f>Z56/12</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="AA57" s="61"/>
-      <c r="AB57" s="63">
+        <v>-0.5</v>
+      </c>
+      <c r="AA57" s="79"/>
+      <c r="AB57" s="93">
         <f>AB56/24</f>
-        <v>-7.458333333333333</v>
-      </c>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="64"/>
+        <v>-10.833333333333334</v>
+      </c>
+      <c r="AC57" s="93"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
       <c r="AF57" s="20"/>
       <c r="AG57" s="20"/>
       <c r="AH57" s="51"/>
     </row>
     <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="57"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
+      <c r="X58" s="87"/>
+      <c r="Y58" s="87"/>
+      <c r="Z58" s="87"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="87"/>
+      <c r="AC58" s="87"/>
+      <c r="AD58" s="87"/>
+      <c r="AE58" s="88"/>
       <c r="AF58" s="52">
         <f>SUM(AF9:AF55)</f>
-        <v>173</v>
+        <v>948</v>
       </c>
       <c r="AG58" s="52">
         <f>SUM(AG9:AG55)</f>
-        <v>786</v>
+        <v>999</v>
       </c>
       <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="58">
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
+      <c r="V59" s="87"/>
+      <c r="W59" s="87"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="87"/>
+      <c r="Z59" s="87"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="87"/>
+      <c r="AC59" s="87"/>
+      <c r="AD59" s="87"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="89">
         <f>AG58-AF58</f>
-        <v>613</v>
-      </c>
-      <c r="AG59" s="59"/>
+        <v>51</v>
+      </c>
+      <c r="AG59" s="90"/>
       <c r="AH59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A58:AE58"/>
+    <mergeCell ref="A59:AE59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="X57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="V56:W56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4113,47 +4505,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4166,7 +4517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4178,7 +4529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="16575" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="16575" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -541,6 +541,150 @@
   </si>
   <si>
     <t>Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>Chị Yến TPHCm</t>
+  </si>
+  <si>
+    <t>E huân thanh trì</t>
+  </si>
+  <si>
+    <t>Hiểu minh thái nguyên</t>
+  </si>
+  <si>
+    <t>Bà tâm  hà nam</t>
+  </si>
+  <si>
+    <t>Huệ điện biên</t>
+  </si>
+  <si>
+    <t>A Lâm</t>
+  </si>
+  <si>
+    <t>Lê doanh hoàng</t>
+  </si>
+  <si>
+    <t>Chị huân</t>
+  </si>
+  <si>
+    <t>E đông thanh trì</t>
+  </si>
+  <si>
+    <t>Trương tuyết TPHCm</t>
+  </si>
+  <si>
+    <t>Chị Phú dịch vọng hậu</t>
+  </si>
+  <si>
+    <t>Chị quý điên biên</t>
+  </si>
+  <si>
+    <t>Chị Hằng</t>
+  </si>
+  <si>
+    <t>Cô mít lào cai</t>
+  </si>
+  <si>
+    <t>Chị Minh Bigbuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anh Lệ Anh Sơn </t>
+  </si>
+  <si>
+    <t>Chị Hà bigbuy</t>
+  </si>
+  <si>
+    <t>Chị Phú cầu giấy</t>
+  </si>
+  <si>
+    <t>Chị Chi Cầu giấy</t>
+  </si>
+  <si>
+    <t>Trường Hiền</t>
+  </si>
+  <si>
+    <t>Bông bống tôn đức thắng</t>
+  </si>
+  <si>
+    <t>Chị thực vĩnh phúc</t>
+  </si>
+  <si>
+    <t>E hằng tân triều</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Sáu </t>
+  </si>
+  <si>
+    <t>Hàng mẫu</t>
+  </si>
+  <si>
+    <t>Tặng nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâm </t>
+  </si>
+  <si>
+    <t>Big buy</t>
+  </si>
+  <si>
+    <t>Oanh cường phú thọ</t>
+  </si>
+  <si>
+    <t>Bác cường bia bà</t>
+  </si>
+  <si>
+    <t>Chị thanh</t>
+  </si>
+  <si>
+    <t>Chị quý điện Biên</t>
+  </si>
+  <si>
+    <t>Chị Hương An thượng</t>
+  </si>
+  <si>
+    <t>Anh tùng CTV</t>
+  </si>
+  <si>
+    <t>Chị Nguyệt Sale</t>
+  </si>
+  <si>
+    <t>Chị quý</t>
+  </si>
+  <si>
+    <t>Chị mến HFC</t>
+  </si>
+  <si>
+    <t>Tình thu</t>
+  </si>
+  <si>
+    <t>Tổng hợp quỳnh trang đã bán</t>
+  </si>
+  <si>
+    <t>Tồn kho Quỳnh trang</t>
+  </si>
+  <si>
+    <t>Nhập hàng đợt 10</t>
+  </si>
+  <si>
+    <t>Nhập hàng đợt 11</t>
+  </si>
+  <si>
+    <t>Nhập hàng đơẹt 12</t>
+  </si>
+  <si>
+    <t>Tồn trên hóa đơn hết ngày 10/6</t>
+  </si>
+  <si>
+    <t>Tồn thực tế trong kho</t>
+  </si>
+  <si>
+    <t>Chênh lệch</t>
+  </si>
+  <si>
+    <t>Tồn đến hết 29/2 trên hóa đơn (đã thông báo cổ đông</t>
+  </si>
+  <si>
+    <t>Kiểm kho kín ngày 10/6</t>
   </si>
 </sst>
 </file>
@@ -550,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +756,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,7 +1089,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -962,85 +1206,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1348,11 +1525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,18 +1537,20 @@
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="3.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="3.28515625" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
     <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
     <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
     <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1385,11 +1564,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1425,11 +1604,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1465,235 +1644,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="A4" s="86">
         <v>43890</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="55" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="64" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="55" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="65" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="55" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="66" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="55" t="s">
+      <c r="M7" s="93"/>
+      <c r="N7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="74" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="55" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="T7" s="75" t="s">
+      <c r="S7" s="74"/>
+      <c r="T7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="75"/>
-      <c r="V7" s="55" t="s">
+      <c r="U7" s="81"/>
+      <c r="V7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="55"/>
-      <c r="X7" s="76" t="s">
+      <c r="W7" s="74"/>
+      <c r="X7" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="55" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="67" t="s">
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="55" t="s">
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="68" t="s">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="68" t="s">
+      <c r="AG7" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="55"/>
+      <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1778,9 +1957,9 @@
       <c r="AE8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="55"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -1909,11 +2088,11 @@
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF56" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF148" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>40</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG55" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG147" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="30"/>
@@ -3979,15 +4158,19 @@
       <c r="AH50" s="30"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="38">
-        <v>30</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="29">
+        <v>43920</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
       <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
+      <c r="G51" s="30">
+        <v>12</v>
+      </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="30"/>
@@ -4012,26 +4195,24 @@
       <c r="AC51" s="37"/>
       <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
-      <c r="AF51" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
       <c r="AH51" s="30"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>31</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="29">
+        <v>43920</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
       <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
+      <c r="G52" s="30">
+        <v>3</v>
+      </c>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="30"/>
@@ -4056,439 +4237,4526 @@
       <c r="AC52" s="37"/>
       <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
-      <c r="AF52" s="20">
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="30"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="29">
+        <v>43920</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="30"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="29">
+        <v>43921</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30">
+        <v>2</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="37"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="30"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="29">
+        <v>43921</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30">
+        <v>24</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30">
+        <v>12</v>
+      </c>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="30"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="29">
+        <v>43922</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30">
+        <v>1</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="30"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="29">
+        <v>43925</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30">
+        <v>1</v>
+      </c>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="30"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
+      <c r="B58" s="29">
+        <v>43929</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30">
+        <v>5</v>
+      </c>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="37"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="30"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
+      <c r="B59" s="29">
+        <v>43930</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30">
+        <v>1</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
+      <c r="AH59" s="30"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
+      <c r="B60" s="29">
+        <v>43931</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
+      <c r="AH60" s="30"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
+      <c r="B61" s="29">
+        <v>43932</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
+      <c r="AH61" s="30"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
+      <c r="B62" s="29">
+        <v>43933</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30">
+        <v>36</v>
+      </c>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="30"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
+      <c r="B63" s="29">
+        <v>43935</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30">
+        <v>36</v>
+      </c>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30">
+        <v>36</v>
+      </c>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30">
+        <v>36</v>
+      </c>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30">
+        <v>36</v>
+      </c>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36">
+        <v>36</v>
+      </c>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30">
+        <v>36</v>
+      </c>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37">
+        <v>72</v>
+      </c>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="30"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="29">
+        <v>43935</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="37"/>
+      <c r="AC64" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="30"/>
+      <c r="AE64" s="30"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="30"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
+      <c r="B65" s="29">
+        <v>43936</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30">
+        <v>2</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30">
+        <v>2</v>
+      </c>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30">
+        <v>1</v>
+      </c>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="30"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
+      <c r="B66" s="29">
+        <v>43937</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30">
+        <v>24</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="30"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="29">
+        <v>43937</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30">
+        <v>12</v>
+      </c>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="30"/>
+      <c r="AE67" s="30"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="30"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="29">
+        <v>43938</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30">
+        <v>1</v>
+      </c>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="30"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="29">
+        <v>43941</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30">
+        <v>24</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="30"/>
+      <c r="AE69" s="30"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="30"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="29">
+        <v>43941</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30">
+        <v>9</v>
+      </c>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30">
+        <v>1</v>
+      </c>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30">
+        <v>2</v>
+      </c>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="30">
+        <v>2</v>
+      </c>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="30"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="29">
+        <v>43941</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30">
+        <v>24</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30">
+        <v>12</v>
+      </c>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30">
+        <v>12</v>
+      </c>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30">
+        <v>12</v>
+      </c>
+      <c r="T71" s="35"/>
+      <c r="U71" s="35"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
+      <c r="AD71" s="30"/>
+      <c r="AE71" s="30"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="30"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="29">
+        <v>43942</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30">
+        <v>1</v>
+      </c>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30">
+        <v>2</v>
+      </c>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30">
+        <v>1</v>
+      </c>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="30"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="29">
+        <v>43942</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30">
+        <v>24</v>
+      </c>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="30"/>
+      <c r="AE73" s="30"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="30"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="29">
+        <v>43942</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30">
+        <v>24</v>
+      </c>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="35"/>
+      <c r="U74" s="35"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36">
+        <v>12</v>
+      </c>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30">
+        <v>12</v>
+      </c>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="30"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="29">
+        <v>43943</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="36"/>
+      <c r="Y75" s="36"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="30"/>
+      <c r="AE75" s="30"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="30"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="29">
+        <v>43944</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30">
+        <v>5</v>
+      </c>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="37"/>
+      <c r="AC76" s="37"/>
+      <c r="AD76" s="30"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="30"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="29">
+        <v>43944</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30">
+        <v>24</v>
+      </c>
+      <c r="AB77" s="37"/>
+      <c r="AC77" s="37"/>
+      <c r="AD77" s="30"/>
+      <c r="AE77" s="30"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="30"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="29">
+        <v>43944</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="37"/>
+      <c r="AC78" s="37">
+        <v>24</v>
+      </c>
+      <c r="AD78" s="30"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="30"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="29">
+        <v>43944</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30">
+        <v>1</v>
+      </c>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="37"/>
+      <c r="AC79" s="37"/>
+      <c r="AD79" s="30"/>
+      <c r="AE79" s="30"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="30"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="29">
+        <v>43944</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30">
+        <v>1</v>
+      </c>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="37"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="30"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="30"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="29">
+        <v>43945</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30">
+        <v>1</v>
+      </c>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="37"/>
+      <c r="AC81" s="37"/>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="30"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="29">
+        <v>43946</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30">
+        <v>18</v>
+      </c>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30">
+        <v>6</v>
+      </c>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="36"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="37"/>
+      <c r="AC82" s="37"/>
+      <c r="AD82" s="30"/>
+      <c r="AE82" s="30"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="30"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="29">
+        <v>43946</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30">
+        <v>5</v>
+      </c>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30">
+        <v>5</v>
+      </c>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30">
+        <v>1</v>
+      </c>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30">
+        <v>5</v>
+      </c>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30">
+        <v>5</v>
+      </c>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="37"/>
+      <c r="AC83" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30">
+        <v>2</v>
+      </c>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="30"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="29">
+        <v>43946</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30">
+        <v>6</v>
+      </c>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="30"/>
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="30"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A85" s="38"/>
+      <c r="B85" s="29">
+        <v>43947</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30">
+        <v>2</v>
+      </c>
+      <c r="T85" s="35"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36">
+        <v>2</v>
+      </c>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="37"/>
+      <c r="AC85" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD85" s="30"/>
+      <c r="AE85" s="30"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="30"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="29">
+        <v>43947</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30">
+        <v>1</v>
+      </c>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="37"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="30"/>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="29">
+        <v>43947</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30">
+        <v>36</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="37"/>
+      <c r="AC87" s="37"/>
+      <c r="AD87" s="30"/>
+      <c r="AE87" s="30"/>
+      <c r="AF87" s="20"/>
+      <c r="AG87" s="20"/>
+      <c r="AH87" s="30"/>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="29">
+        <v>43949</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="30"/>
+      <c r="AE88" s="30"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="30"/>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="29">
+        <v>43937</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="30">
+        <v>12</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="30">
+        <v>2</v>
+      </c>
+      <c r="S89" s="30"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="37"/>
+      <c r="AC89" s="37"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="30"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="29">
+        <v>43940</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="30">
+        <v>12</v>
+      </c>
+      <c r="S90" s="30"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="30">
+        <v>12</v>
+      </c>
+      <c r="W90" s="30"/>
+      <c r="X90" s="36">
+        <v>12</v>
+      </c>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="30">
+        <v>24</v>
+      </c>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="37">
+        <v>38</v>
+      </c>
+      <c r="AC90" s="37"/>
+      <c r="AD90" s="30">
+        <v>20</v>
+      </c>
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="30"/>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="29">
+        <v>43940</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="30">
+        <v>22</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="30">
+        <v>22</v>
+      </c>
+      <c r="K91" s="30"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="30">
+        <v>8</v>
+      </c>
+      <c r="O91" s="30"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="30">
+        <v>5</v>
+      </c>
+      <c r="S91" s="30"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="30">
+        <v>12</v>
+      </c>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="37">
+        <v>11</v>
+      </c>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="30"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A92" s="38"/>
+      <c r="B92" s="29">
+        <v>43948</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="30">
+        <v>1</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="37"/>
+      <c r="AC92" s="37"/>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="30"/>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="29">
+        <v>43951</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30">
+        <v>4</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30">
+        <v>2</v>
+      </c>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30">
+        <v>1</v>
+      </c>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="37"/>
+      <c r="AC93" s="37"/>
+      <c r="AD93" s="30"/>
+      <c r="AE93" s="30"/>
+      <c r="AF93" s="20"/>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="30"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A94" s="38"/>
+      <c r="B94" s="29">
+        <v>43951</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30">
+        <v>1</v>
+      </c>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="37"/>
+      <c r="AC94" s="37"/>
+      <c r="AD94" s="30"/>
+      <c r="AE94" s="30"/>
+      <c r="AF94" s="20"/>
+      <c r="AG94" s="20"/>
+      <c r="AH94" s="30"/>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="B95" s="29">
+        <v>43953</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="37"/>
+      <c r="AC95" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD95" s="30"/>
+      <c r="AE95" s="30"/>
+      <c r="AF95" s="20"/>
+      <c r="AG95" s="20"/>
+      <c r="AH95" s="30"/>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A96" s="38"/>
+      <c r="B96" s="29">
+        <v>43955</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30">
+        <v>109</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30">
+        <v>2</v>
+      </c>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30">
+        <v>8</v>
+      </c>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30">
+        <v>7</v>
+      </c>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30">
+        <v>75</v>
+      </c>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36">
+        <v>101</v>
+      </c>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30">
+        <v>37</v>
+      </c>
+      <c r="AB96" s="37"/>
+      <c r="AC96" s="37">
+        <v>68</v>
+      </c>
+      <c r="AD96" s="30"/>
+      <c r="AE96" s="30"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="30"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A97" s="38"/>
+      <c r="B97" s="29">
+        <v>43955</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30">
+        <v>1</v>
+      </c>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30">
+        <v>1</v>
+      </c>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="30">
+        <v>1</v>
+      </c>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="30"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="37"/>
+      <c r="AC97" s="37"/>
+      <c r="AD97" s="30"/>
+      <c r="AE97" s="30"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="30"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A98" s="38"/>
+      <c r="B98" s="29">
+        <v>43956</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30">
+        <v>24</v>
+      </c>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="30"/>
+      <c r="S98" s="30">
+        <v>12</v>
+      </c>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="30"/>
+      <c r="W98" s="30">
+        <v>12</v>
+      </c>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="37"/>
+      <c r="AC98" s="37"/>
+      <c r="AD98" s="30"/>
+      <c r="AE98" s="30"/>
+      <c r="AF98" s="20"/>
+      <c r="AG98" s="20"/>
+      <c r="AH98" s="30"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A99" s="38"/>
+      <c r="B99" s="29">
+        <v>43956</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="37"/>
+      <c r="AC99" s="37"/>
+      <c r="AD99" s="30"/>
+      <c r="AE99" s="30"/>
+      <c r="AF99" s="20"/>
+      <c r="AG99" s="20"/>
+      <c r="AH99" s="30"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A100" s="38"/>
+      <c r="B100" s="29">
+        <v>43956</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="37"/>
+      <c r="AC100" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
+      <c r="AF100" s="20"/>
+      <c r="AG100" s="20"/>
+      <c r="AH100" s="30"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A101" s="38"/>
+      <c r="B101" s="29">
+        <v>43957</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="33"/>
+      <c r="M101" s="33"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36">
+        <v>12</v>
+      </c>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30">
+        <v>12</v>
+      </c>
+      <c r="AB101" s="37"/>
+      <c r="AC101" s="37"/>
+      <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
+      <c r="AF101" s="20"/>
+      <c r="AG101" s="20"/>
+      <c r="AH101" s="30"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="29">
+        <v>43987</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30">
+        <v>1</v>
+      </c>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30">
+        <v>1</v>
+      </c>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30">
+        <v>1</v>
+      </c>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30">
+        <v>1</v>
+      </c>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="30">
+        <v>1</v>
+      </c>
+      <c r="X102" s="36"/>
+      <c r="Y102" s="36"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="37"/>
+      <c r="AC102" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="30"/>
+      <c r="AE102" s="30"/>
+      <c r="AF102" s="20"/>
+      <c r="AG102" s="20"/>
+      <c r="AH102" s="30"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A103" s="38"/>
+      <c r="B103" s="29">
+        <v>43957</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31">
+        <v>24</v>
+      </c>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="30"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="37"/>
+      <c r="AC103" s="37"/>
+      <c r="AD103" s="30"/>
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="30"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="29">
+        <v>43987</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="33"/>
+      <c r="M104" s="33"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30">
+        <v>1</v>
+      </c>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="37"/>
+      <c r="AC104" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD104" s="30"/>
+      <c r="AE104" s="30"/>
+      <c r="AF104" s="20"/>
+      <c r="AG104" s="20"/>
+      <c r="AH104" s="30"/>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A105" s="38"/>
+      <c r="B105" s="29">
+        <v>43959</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30">
+        <v>3</v>
+      </c>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="37"/>
+      <c r="AC105" s="37"/>
+      <c r="AD105" s="30"/>
+      <c r="AE105" s="30"/>
+      <c r="AF105" s="20"/>
+      <c r="AG105" s="20"/>
+      <c r="AH105" s="30"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A106" s="38"/>
+      <c r="B106" s="29">
+        <v>43959</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="33"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="30"/>
+      <c r="P106" s="34"/>
+      <c r="Q106" s="34"/>
+      <c r="R106" s="30"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="37"/>
+      <c r="AC106" s="37"/>
+      <c r="AD106" s="30"/>
+      <c r="AE106" s="30"/>
+      <c r="AF106" s="20"/>
+      <c r="AG106" s="20"/>
+      <c r="AH106" s="30"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A107" s="38"/>
+      <c r="B107" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30">
+        <v>5</v>
+      </c>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="34"/>
+      <c r="Q107" s="34"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30">
+        <v>10</v>
+      </c>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36">
+        <v>3</v>
+      </c>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="37"/>
+      <c r="AC107" s="37"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="30"/>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A108" s="38"/>
+      <c r="B108" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31">
+        <v>24</v>
+      </c>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30">
+        <v>24</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="33"/>
+      <c r="M108" s="33"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="30"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="37"/>
+      <c r="AC108" s="37"/>
+      <c r="AD108" s="30"/>
+      <c r="AE108" s="30"/>
+      <c r="AF108" s="20"/>
+      <c r="AG108" s="20"/>
+      <c r="AH108" s="30"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31">
+        <v>24</v>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="33"/>
+      <c r="M109" s="33"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="34"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="37"/>
+      <c r="AC109" s="37"/>
+      <c r="AD109" s="30"/>
+      <c r="AE109" s="30"/>
+      <c r="AF109" s="20"/>
+      <c r="AG109" s="20"/>
+      <c r="AH109" s="30"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30">
+        <v>2</v>
+      </c>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30">
+        <v>5</v>
+      </c>
+      <c r="L110" s="33"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="34"/>
+      <c r="Q110" s="34"/>
+      <c r="R110" s="30"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="30"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="37"/>
+      <c r="AC110" s="37"/>
+      <c r="AD110" s="30"/>
+      <c r="AE110" s="30"/>
+      <c r="AF110" s="20"/>
+      <c r="AG110" s="20"/>
+      <c r="AH110" s="30"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A111" s="38"/>
+      <c r="B111" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30">
+        <v>12</v>
+      </c>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="37"/>
+      <c r="AC111" s="37"/>
+      <c r="AD111" s="30"/>
+      <c r="AE111" s="30"/>
+      <c r="AF111" s="20"/>
+      <c r="AG111" s="20"/>
+      <c r="AH111" s="30"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A112" s="38"/>
+      <c r="B112" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="33"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="30"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="30"/>
+      <c r="S112" s="30">
+        <v>1</v>
+      </c>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="30"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="37"/>
+      <c r="AC112" s="37"/>
+      <c r="AD112" s="30"/>
+      <c r="AE112" s="30"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="30"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="29">
+        <v>43960</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30">
+        <v>1</v>
+      </c>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30">
+        <v>2</v>
+      </c>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="30">
+        <v>1</v>
+      </c>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="30"/>
+      <c r="S113" s="30">
+        <v>1</v>
+      </c>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="30"/>
+      <c r="W113" s="30">
+        <v>1</v>
+      </c>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="37"/>
+      <c r="AC113" s="37">
+        <v>2</v>
+      </c>
+      <c r="AD113" s="30"/>
+      <c r="AE113" s="30"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="30"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A114" s="38"/>
+      <c r="B114" s="29">
+        <v>43962</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30">
+        <v>24</v>
+      </c>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30">
+        <v>24</v>
+      </c>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="30"/>
+      <c r="P114" s="34"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="30"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="30"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="36"/>
+      <c r="Y114" s="36"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="37"/>
+      <c r="AC114" s="37"/>
+      <c r="AD114" s="30"/>
+      <c r="AE114" s="30"/>
+      <c r="AF114" s="20"/>
+      <c r="AG114" s="20"/>
+      <c r="AH114" s="30"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A115" s="38"/>
+      <c r="B115" s="29">
+        <v>43962</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="30"/>
+      <c r="P115" s="34"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="30"/>
+      <c r="S115" s="30">
+        <v>12</v>
+      </c>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="37"/>
+      <c r="AC115" s="37"/>
+      <c r="AD115" s="30"/>
+      <c r="AE115" s="30"/>
+      <c r="AF115" s="20"/>
+      <c r="AG115" s="20"/>
+      <c r="AH115" s="30"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A116" s="38"/>
+      <c r="B116" s="29">
+        <v>43963</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30">
+        <v>1</v>
+      </c>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="30"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="30"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="30"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="37"/>
+      <c r="AC116" s="37"/>
+      <c r="AD116" s="30"/>
+      <c r="AE116" s="30"/>
+      <c r="AF116" s="20"/>
+      <c r="AG116" s="20"/>
+      <c r="AH116" s="30"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A117" s="38"/>
+      <c r="B117" s="29">
+        <v>43965</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30">
+        <v>2</v>
+      </c>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30">
+        <v>1</v>
+      </c>
+      <c r="L117" s="33"/>
+      <c r="M117" s="33"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="37"/>
+      <c r="AC117" s="37"/>
+      <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="20"/>
+      <c r="AG117" s="20"/>
+      <c r="AH117" s="30"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A118" s="38">
+        <v>30</v>
+      </c>
+      <c r="B118" s="29">
+        <v>43965</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30">
+        <v>12</v>
+      </c>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="30"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="30"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30">
+        <v>12</v>
+      </c>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36">
+        <v>24</v>
+      </c>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30">
+        <v>12</v>
+      </c>
+      <c r="AB118" s="37"/>
+      <c r="AC118" s="37"/>
+      <c r="AD118" s="30"/>
+      <c r="AE118" s="30"/>
+      <c r="AF118" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AG118" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH118" s="30"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A119" s="20">
+        <v>31</v>
+      </c>
+      <c r="B119" s="29">
+        <v>43967</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30">
+        <v>10</v>
+      </c>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30">
+        <v>16</v>
+      </c>
+      <c r="L119" s="33"/>
+      <c r="M119" s="33"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="30"/>
+      <c r="P119" s="34"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="37"/>
+      <c r="AC119" s="37">
+        <v>6</v>
+      </c>
+      <c r="AD119" s="30"/>
+      <c r="AE119" s="30"/>
+      <c r="AF119" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG119" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH119" s="30"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A120" s="38">
+        <v>32</v>
+      </c>
+      <c r="B120" s="39">
+        <v>43967</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="44"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="40"/>
+      <c r="S120" s="40">
+        <v>12</v>
+      </c>
+      <c r="T120" s="45"/>
+      <c r="U120" s="45"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="46"/>
+      <c r="Y120" s="46"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="47"/>
+      <c r="AC120" s="47"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="40"/>
+      <c r="AF120" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG120" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH120" s="40"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A121" s="38"/>
+      <c r="B121" s="39">
+        <v>43967</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40">
+        <v>36</v>
+      </c>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40">
+        <v>24</v>
+      </c>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="44"/>
+      <c r="Q121" s="44"/>
+      <c r="R121" s="40"/>
+      <c r="S121" s="40">
+        <v>12</v>
+      </c>
+      <c r="T121" s="45"/>
+      <c r="U121" s="45"/>
+      <c r="V121" s="40"/>
+      <c r="W121" s="40">
+        <v>12</v>
+      </c>
+      <c r="X121" s="46"/>
+      <c r="Y121" s="46"/>
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="47"/>
+      <c r="AC121" s="47"/>
+      <c r="AD121" s="40"/>
+      <c r="AE121" s="40"/>
+      <c r="AF121" s="20"/>
+      <c r="AG121" s="20"/>
+      <c r="AH121" s="40"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A122" s="38"/>
+      <c r="B122" s="39">
+        <v>43968</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40">
+        <v>1</v>
+      </c>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="44"/>
+      <c r="Q122" s="44"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="45"/>
+      <c r="U122" s="45"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="46"/>
+      <c r="Y122" s="46"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="47"/>
+      <c r="AC122" s="47"/>
+      <c r="AD122" s="40"/>
+      <c r="AE122" s="40"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="40"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A123" s="38"/>
+      <c r="B123" s="39">
+        <v>43969</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41">
+        <v>2</v>
+      </c>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40">
+        <v>1</v>
+      </c>
+      <c r="P123" s="44"/>
+      <c r="Q123" s="44"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="45"/>
+      <c r="U123" s="45"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="46"/>
+      <c r="Y123" s="46"/>
+      <c r="Z123" s="40"/>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="47"/>
+      <c r="AC123" s="47"/>
+      <c r="AD123" s="40"/>
+      <c r="AE123" s="40"/>
+      <c r="AF123" s="20"/>
+      <c r="AG123" s="20"/>
+      <c r="AH123" s="40"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A124" s="38"/>
+      <c r="B124" s="39">
+        <v>43969</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="40">
+        <v>1</v>
+      </c>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40">
+        <v>1</v>
+      </c>
+      <c r="P124" s="44"/>
+      <c r="Q124" s="44"/>
+      <c r="R124" s="40"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="45"/>
+      <c r="U124" s="45"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
+      <c r="X124" s="46"/>
+      <c r="Y124" s="46"/>
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="47"/>
+      <c r="AC124" s="47"/>
+      <c r="AD124" s="40"/>
+      <c r="AE124" s="40"/>
+      <c r="AF124" s="20"/>
+      <c r="AG124" s="20"/>
+      <c r="AH124" s="40"/>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A125" s="38"/>
+      <c r="B125" s="39">
+        <v>43969</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
+      <c r="P125" s="44"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="45"/>
+      <c r="U125" s="45"/>
+      <c r="V125" s="40"/>
+      <c r="W125" s="40"/>
+      <c r="X125" s="46"/>
+      <c r="Y125" s="46"/>
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="40">
+        <v>5</v>
+      </c>
+      <c r="AB125" s="47"/>
+      <c r="AC125" s="47"/>
+      <c r="AD125" s="40"/>
+      <c r="AE125" s="40"/>
+      <c r="AF125" s="20"/>
+      <c r="AG125" s="20"/>
+      <c r="AH125" s="40"/>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A126" s="38"/>
+      <c r="B126" s="39">
+        <v>43969</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40">
+        <v>12</v>
+      </c>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="44"/>
+      <c r="Q126" s="44"/>
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="45"/>
+      <c r="U126" s="45"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
+      <c r="X126" s="46"/>
+      <c r="Y126" s="46"/>
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="47"/>
+      <c r="AC126" s="47"/>
+      <c r="AD126" s="40"/>
+      <c r="AE126" s="40"/>
+      <c r="AF126" s="20"/>
+      <c r="AG126" s="20"/>
+      <c r="AH126" s="40"/>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A127" s="38"/>
+      <c r="B127" s="39">
+        <v>43970</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="40"/>
+      <c r="P127" s="44"/>
+      <c r="Q127" s="44"/>
+      <c r="R127" s="40"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="45"/>
+      <c r="U127" s="45"/>
+      <c r="V127" s="40"/>
+      <c r="W127" s="40"/>
+      <c r="X127" s="46"/>
+      <c r="Y127" s="46"/>
+      <c r="Z127" s="40"/>
+      <c r="AA127" s="40"/>
+      <c r="AB127" s="47"/>
+      <c r="AC127" s="47">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="40"/>
+      <c r="AE127" s="40"/>
+      <c r="AF127" s="20"/>
+      <c r="AG127" s="20"/>
+      <c r="AH127" s="40"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A128" s="38"/>
+      <c r="B128" s="39">
+        <v>43971</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40">
+        <v>2</v>
+      </c>
+      <c r="H128" s="42"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="40"/>
+      <c r="P128" s="44"/>
+      <c r="Q128" s="44"/>
+      <c r="R128" s="40"/>
+      <c r="S128" s="40"/>
+      <c r="T128" s="45"/>
+      <c r="U128" s="45"/>
+      <c r="V128" s="40"/>
+      <c r="W128" s="40"/>
+      <c r="X128" s="46"/>
+      <c r="Y128" s="46"/>
+      <c r="Z128" s="40"/>
+      <c r="AA128" s="40"/>
+      <c r="AB128" s="47"/>
+      <c r="AC128" s="47"/>
+      <c r="AD128" s="40"/>
+      <c r="AE128" s="40"/>
+      <c r="AF128" s="20"/>
+      <c r="AG128" s="20"/>
+      <c r="AH128" s="40"/>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A129" s="38"/>
+      <c r="B129" s="39">
+        <v>43971</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40">
+        <v>1</v>
+      </c>
+      <c r="H129" s="42"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40">
+        <v>1</v>
+      </c>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40">
+        <v>1</v>
+      </c>
+      <c r="P129" s="44"/>
+      <c r="Q129" s="44"/>
+      <c r="R129" s="40"/>
+      <c r="S129" s="40">
+        <v>1</v>
+      </c>
+      <c r="T129" s="45"/>
+      <c r="U129" s="45">
+        <v>1</v>
+      </c>
+      <c r="V129" s="40"/>
+      <c r="W129" s="40"/>
+      <c r="X129" s="46"/>
+      <c r="Y129" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z129" s="40"/>
+      <c r="AA129" s="40"/>
+      <c r="AB129" s="47"/>
+      <c r="AC129" s="47">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="40"/>
+      <c r="AE129" s="40"/>
+      <c r="AF129" s="20"/>
+      <c r="AG129" s="20"/>
+      <c r="AH129" s="40"/>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A130" s="38"/>
+      <c r="B130" s="39">
+        <v>43972</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
+      <c r="T130" s="45"/>
+      <c r="U130" s="45"/>
+      <c r="V130" s="40"/>
+      <c r="W130" s="40"/>
+      <c r="X130" s="46"/>
+      <c r="Y130" s="46"/>
+      <c r="Z130" s="40"/>
+      <c r="AA130" s="40"/>
+      <c r="AB130" s="47"/>
+      <c r="AC130" s="47"/>
+      <c r="AD130" s="40"/>
+      <c r="AE130" s="40">
+        <v>1</v>
+      </c>
+      <c r="AF130" s="20"/>
+      <c r="AG130" s="20"/>
+      <c r="AH130" s="40"/>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A131" s="38"/>
+      <c r="B131" s="39">
+        <v>43974</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="42"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40">
+        <v>6</v>
+      </c>
+      <c r="P131" s="44"/>
+      <c r="Q131" s="44"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="40">
+        <v>6</v>
+      </c>
+      <c r="T131" s="45"/>
+      <c r="U131" s="45"/>
+      <c r="V131" s="40"/>
+      <c r="W131" s="40"/>
+      <c r="X131" s="46"/>
+      <c r="Y131" s="46"/>
+      <c r="Z131" s="40"/>
+      <c r="AA131" s="40"/>
+      <c r="AB131" s="47"/>
+      <c r="AC131" s="47"/>
+      <c r="AD131" s="40"/>
+      <c r="AE131" s="40"/>
+      <c r="AF131" s="20"/>
+      <c r="AG131" s="20"/>
+      <c r="AH131" s="40"/>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A132" s="38"/>
+      <c r="B132" s="39">
+        <v>43976</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132" s="41"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40">
+        <v>60</v>
+      </c>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40">
+        <v>48</v>
+      </c>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40">
+        <v>36</v>
+      </c>
+      <c r="P132" s="44"/>
+      <c r="Q132" s="44"/>
+      <c r="R132" s="40"/>
+      <c r="S132" s="40"/>
+      <c r="T132" s="45"/>
+      <c r="U132" s="45"/>
+      <c r="V132" s="40"/>
+      <c r="W132" s="40"/>
+      <c r="X132" s="46"/>
+      <c r="Y132" s="46"/>
+      <c r="Z132" s="40"/>
+      <c r="AA132" s="40"/>
+      <c r="AB132" s="47"/>
+      <c r="AC132" s="47"/>
+      <c r="AD132" s="40"/>
+      <c r="AE132" s="40"/>
+      <c r="AF132" s="20"/>
+      <c r="AG132" s="20"/>
+      <c r="AH132" s="40"/>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A133" s="38"/>
+      <c r="B133" s="39">
+        <v>43976</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41">
+        <v>24</v>
+      </c>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="40"/>
+      <c r="O133" s="40"/>
+      <c r="P133" s="44"/>
+      <c r="Q133" s="44"/>
+      <c r="R133" s="40"/>
+      <c r="S133" s="40">
+        <v>12</v>
+      </c>
+      <c r="T133" s="45"/>
+      <c r="U133" s="45"/>
+      <c r="V133" s="40"/>
+      <c r="W133" s="40"/>
+      <c r="X133" s="46"/>
+      <c r="Y133" s="46"/>
+      <c r="Z133" s="40"/>
+      <c r="AA133" s="40"/>
+      <c r="AB133" s="47"/>
+      <c r="AC133" s="47"/>
+      <c r="AD133" s="40"/>
+      <c r="AE133" s="40"/>
+      <c r="AF133" s="20"/>
+      <c r="AG133" s="20"/>
+      <c r="AH133" s="40"/>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A134" s="38"/>
+      <c r="B134" s="39">
+        <v>43955</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="40"/>
+      <c r="O134" s="40"/>
+      <c r="P134" s="44"/>
+      <c r="Q134" s="44"/>
+      <c r="R134" s="40">
+        <v>10</v>
+      </c>
+      <c r="S134" s="40"/>
+      <c r="T134" s="45"/>
+      <c r="U134" s="45"/>
+      <c r="V134" s="40"/>
+      <c r="W134" s="40"/>
+      <c r="X134" s="46"/>
+      <c r="Y134" s="46"/>
+      <c r="Z134" s="40"/>
+      <c r="AA134" s="40"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="40"/>
+      <c r="AE134" s="40"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="40"/>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A135" s="38"/>
+      <c r="B135" s="39">
+        <v>43956</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="42">
+        <v>10</v>
+      </c>
+      <c r="I135" s="42"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="43">
+        <v>14</v>
+      </c>
+      <c r="M135" s="43"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="44"/>
+      <c r="Q135" s="44"/>
+      <c r="R135" s="40"/>
+      <c r="S135" s="40"/>
+      <c r="T135" s="45">
+        <v>11</v>
+      </c>
+      <c r="U135" s="45"/>
+      <c r="V135" s="40"/>
+      <c r="W135" s="40"/>
+      <c r="X135" s="46"/>
+      <c r="Y135" s="46"/>
+      <c r="Z135" s="40"/>
+      <c r="AA135" s="40"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="40"/>
+      <c r="AE135" s="40"/>
+      <c r="AF135" s="20"/>
+      <c r="AG135" s="20"/>
+      <c r="AH135" s="40"/>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A136" s="38"/>
+      <c r="B136" s="39">
+        <v>43962</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="40"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="40"/>
+      <c r="O136" s="40"/>
+      <c r="P136" s="44"/>
+      <c r="Q136" s="44"/>
+      <c r="R136" s="40">
+        <v>12</v>
+      </c>
+      <c r="S136" s="40"/>
+      <c r="T136" s="45"/>
+      <c r="U136" s="45"/>
+      <c r="V136" s="40"/>
+      <c r="W136" s="40"/>
+      <c r="X136" s="46"/>
+      <c r="Y136" s="46"/>
+      <c r="Z136" s="40"/>
+      <c r="AA136" s="40"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="40"/>
+      <c r="AE136" s="40"/>
+      <c r="AF136" s="20"/>
+      <c r="AG136" s="20"/>
+      <c r="AH136" s="40"/>
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A137" s="38"/>
+      <c r="B137" s="39">
+        <v>43965</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="40"/>
+      <c r="O137" s="40"/>
+      <c r="P137" s="44"/>
+      <c r="Q137" s="44"/>
+      <c r="R137" s="40"/>
+      <c r="S137" s="40"/>
+      <c r="T137" s="45"/>
+      <c r="U137" s="45"/>
+      <c r="V137" s="40"/>
+      <c r="W137" s="40"/>
+      <c r="X137" s="46">
+        <v>12</v>
+      </c>
+      <c r="Y137" s="46"/>
+      <c r="Z137" s="40"/>
+      <c r="AA137" s="40"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="40"/>
+      <c r="AE137" s="40"/>
+      <c r="AF137" s="20"/>
+      <c r="AG137" s="20"/>
+      <c r="AH137" s="40"/>
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A138" s="38"/>
+      <c r="B138" s="39">
+        <v>43974</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="40"/>
+      <c r="P138" s="44"/>
+      <c r="Q138" s="44"/>
+      <c r="R138" s="40"/>
+      <c r="S138" s="40"/>
+      <c r="T138" s="45"/>
+      <c r="U138" s="45"/>
+      <c r="V138" s="40">
+        <v>12</v>
+      </c>
+      <c r="W138" s="40"/>
+      <c r="X138" s="46"/>
+      <c r="Y138" s="46"/>
+      <c r="Z138" s="40"/>
+      <c r="AA138" s="40"/>
+      <c r="AB138" s="47"/>
+      <c r="AC138" s="47"/>
+      <c r="AD138" s="40"/>
+      <c r="AE138" s="40"/>
+      <c r="AF138" s="20"/>
+      <c r="AG138" s="20"/>
+      <c r="AH138" s="40"/>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A139" s="38"/>
+      <c r="B139" s="39">
+        <v>43975</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="40"/>
+      <c r="O139" s="40"/>
+      <c r="P139" s="44"/>
+      <c r="Q139" s="44"/>
+      <c r="R139" s="40"/>
+      <c r="S139" s="40"/>
+      <c r="T139" s="45"/>
+      <c r="U139" s="45"/>
+      <c r="V139" s="40">
+        <v>12</v>
+      </c>
+      <c r="W139" s="40"/>
+      <c r="X139" s="46">
+        <v>24</v>
+      </c>
+      <c r="Y139" s="46"/>
+      <c r="Z139" s="40"/>
+      <c r="AA139" s="40"/>
+      <c r="AB139" s="47">
+        <v>18</v>
+      </c>
+      <c r="AC139" s="47"/>
+      <c r="AD139" s="40">
+        <v>46</v>
+      </c>
+      <c r="AE139" s="40"/>
+      <c r="AF139" s="20"/>
+      <c r="AG139" s="20"/>
+      <c r="AH139" s="40"/>
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A140" s="38"/>
+      <c r="B140" s="39">
+        <v>24</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="40"/>
+      <c r="O140" s="40"/>
+      <c r="P140" s="44"/>
+      <c r="Q140" s="44"/>
+      <c r="R140" s="40"/>
+      <c r="S140" s="40"/>
+      <c r="T140" s="45"/>
+      <c r="U140" s="45"/>
+      <c r="V140" s="40"/>
+      <c r="W140" s="40"/>
+      <c r="X140" s="46">
+        <v>84</v>
+      </c>
+      <c r="Y140" s="46"/>
+      <c r="Z140" s="40"/>
+      <c r="AA140" s="40"/>
+      <c r="AB140" s="47">
+        <v>48</v>
+      </c>
+      <c r="AC140" s="47"/>
+      <c r="AD140" s="40">
+        <v>17</v>
+      </c>
+      <c r="AE140" s="40"/>
+      <c r="AF140" s="20"/>
+      <c r="AG140" s="20"/>
+      <c r="AH140" s="40"/>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A141" s="38"/>
+      <c r="B141" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41">
+        <v>2</v>
+      </c>
+      <c r="F141" s="40"/>
+      <c r="G141" s="40">
+        <v>3</v>
+      </c>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="40">
+        <v>2</v>
+      </c>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="40"/>
+      <c r="O141" s="40">
+        <v>2</v>
+      </c>
+      <c r="P141" s="44"/>
+      <c r="Q141" s="44"/>
+      <c r="R141" s="40"/>
+      <c r="S141" s="40">
+        <v>14</v>
+      </c>
+      <c r="T141" s="45"/>
+      <c r="U141" s="45"/>
+      <c r="V141" s="40"/>
+      <c r="W141" s="40"/>
+      <c r="X141" s="46"/>
+      <c r="Y141" s="46"/>
+      <c r="Z141" s="40"/>
+      <c r="AA141" s="40">
+        <v>2</v>
+      </c>
+      <c r="AB141" s="47"/>
+      <c r="AC141" s="47">
+        <v>8</v>
+      </c>
+      <c r="AD141" s="40"/>
+      <c r="AE141" s="40"/>
+      <c r="AF141" s="20"/>
+      <c r="AG141" s="20"/>
+      <c r="AH141" s="40"/>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A142" s="38"/>
+      <c r="B142" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D142" s="41"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40">
+        <v>1</v>
+      </c>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="40">
+        <v>23</v>
+      </c>
+      <c r="L142" s="43"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="40"/>
+      <c r="O142" s="40">
+        <v>40</v>
+      </c>
+      <c r="P142" s="44"/>
+      <c r="Q142" s="44"/>
+      <c r="R142" s="40"/>
+      <c r="S142" s="40">
+        <v>74</v>
+      </c>
+      <c r="T142" s="45"/>
+      <c r="U142" s="45"/>
+      <c r="V142" s="40"/>
+      <c r="W142" s="40">
+        <v>10</v>
+      </c>
+      <c r="X142" s="46"/>
+      <c r="Y142" s="46">
+        <v>59</v>
+      </c>
+      <c r="Z142" s="40"/>
+      <c r="AA142" s="40">
+        <v>55</v>
+      </c>
+      <c r="AB142" s="47"/>
+      <c r="AC142" s="47">
+        <v>57</v>
+      </c>
+      <c r="AD142" s="40"/>
+      <c r="AE142" s="40"/>
+      <c r="AF142" s="20"/>
+      <c r="AG142" s="20"/>
+      <c r="AH142" s="40"/>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A143" s="38"/>
+      <c r="B143" s="39">
+        <v>43901</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
+      <c r="L143" s="43"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="40"/>
+      <c r="O143" s="40"/>
+      <c r="P143" s="44"/>
+      <c r="Q143" s="44"/>
+      <c r="R143" s="40"/>
+      <c r="S143" s="40"/>
+      <c r="T143" s="45"/>
+      <c r="U143" s="45"/>
+      <c r="V143" s="40"/>
+      <c r="W143" s="40"/>
+      <c r="X143" s="46"/>
+      <c r="Y143" s="46"/>
+      <c r="Z143" s="40"/>
+      <c r="AA143" s="40"/>
+      <c r="AB143" s="47"/>
+      <c r="AC143" s="47"/>
+      <c r="AD143" s="40">
+        <v>70</v>
+      </c>
+      <c r="AE143" s="40"/>
+      <c r="AF143" s="20"/>
+      <c r="AG143" s="20"/>
+      <c r="AH143" s="40"/>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A144" s="38"/>
+      <c r="B144" s="39">
+        <v>43914</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="40">
+        <f>60*12</f>
+        <v>720</v>
+      </c>
+      <c r="G144" s="40"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="44"/>
+      <c r="Q144" s="44"/>
+      <c r="R144" s="40"/>
+      <c r="S144" s="40"/>
+      <c r="T144" s="45"/>
+      <c r="U144" s="45"/>
+      <c r="V144" s="40">
+        <v>120</v>
+      </c>
+      <c r="W144" s="40"/>
+      <c r="X144" s="46">
+        <v>120</v>
+      </c>
+      <c r="Y144" s="46"/>
+      <c r="Z144" s="40">
+        <v>120</v>
+      </c>
+      <c r="AA144" s="40"/>
+      <c r="AB144" s="47">
+        <v>240</v>
+      </c>
+      <c r="AC144" s="47"/>
+      <c r="AD144" s="40"/>
+      <c r="AE144" s="40"/>
+      <c r="AF144" s="20"/>
+      <c r="AG144" s="20"/>
+      <c r="AH144" s="40"/>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A145" s="38"/>
+      <c r="B145" s="39">
+        <v>43955</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="41">
+        <v>240</v>
+      </c>
+      <c r="E145" s="41"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="40">
+        <v>240</v>
+      </c>
+      <c r="K145" s="40"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="40">
+        <v>120</v>
+      </c>
+      <c r="O145" s="40"/>
+      <c r="P145" s="44"/>
+      <c r="Q145" s="44"/>
+      <c r="R145" s="40">
+        <v>240</v>
+      </c>
+      <c r="S145" s="40"/>
+      <c r="T145" s="45"/>
+      <c r="U145" s="45"/>
+      <c r="V145" s="40"/>
+      <c r="W145" s="40"/>
+      <c r="X145" s="46"/>
+      <c r="Y145" s="46"/>
+      <c r="Z145" s="40">
+        <v>120</v>
+      </c>
+      <c r="AA145" s="40"/>
+      <c r="AB145" s="47">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="AC145" s="47"/>
+      <c r="AD145" s="40"/>
+      <c r="AE145" s="40"/>
+      <c r="AF145" s="20"/>
+      <c r="AG145" s="20"/>
+      <c r="AH145" s="40"/>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A146" s="20">
+        <v>33</v>
+      </c>
+      <c r="B146" s="39"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="40"/>
+      <c r="L146" s="43"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="40"/>
+      <c r="O146" s="40"/>
+      <c r="P146" s="44"/>
+      <c r="Q146" s="44"/>
+      <c r="R146" s="40"/>
+      <c r="S146" s="40"/>
+      <c r="T146" s="45"/>
+      <c r="U146" s="45"/>
+      <c r="V146" s="40"/>
+      <c r="W146" s="40"/>
+      <c r="X146" s="46"/>
+      <c r="Y146" s="46"/>
+      <c r="Z146" s="40"/>
+      <c r="AA146" s="40"/>
+      <c r="AB146" s="47"/>
+      <c r="AC146" s="47"/>
+      <c r="AD146" s="40"/>
+      <c r="AE146" s="40"/>
+      <c r="AF146" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="20">
+      <c r="AG146" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="30"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
-        <v>32</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="47"/>
-      <c r="AC53" s="47"/>
-      <c r="AD53" s="40"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="20">
+      <c r="AH146" s="40"/>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A147" s="38">
+        <v>34</v>
+      </c>
+      <c r="B147" s="39"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="42"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="40"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="40"/>
+      <c r="O147" s="40"/>
+      <c r="P147" s="44"/>
+      <c r="Q147" s="44"/>
+      <c r="R147" s="40"/>
+      <c r="S147" s="40"/>
+      <c r="T147" s="45"/>
+      <c r="U147" s="45"/>
+      <c r="V147" s="40"/>
+      <c r="W147" s="40"/>
+      <c r="X147" s="46"/>
+      <c r="Y147" s="46"/>
+      <c r="Z147" s="40"/>
+      <c r="AA147" s="40"/>
+      <c r="AB147" s="47"/>
+      <c r="AC147" s="47"/>
+      <c r="AD147" s="40"/>
+      <c r="AE147" s="40"/>
+      <c r="AF147" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="20">
+      <c r="AG147" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="40"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>33</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="47"/>
-      <c r="AC54" s="47"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="20">
+      <c r="AH147" s="40"/>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="77">
+        <f>SUM(D9:D147)-SUM(E9:E147)</f>
+        <v>128</v>
+      </c>
+      <c r="E148" s="77"/>
+      <c r="F148" s="64">
+        <f>SUM(F9:F147)-SUM(G9:G147)</f>
+        <v>93</v>
+      </c>
+      <c r="G148" s="64"/>
+      <c r="H148" s="78">
+        <f>SUM(H9:H147)-SUM(I9:I147)</f>
+        <v>75</v>
+      </c>
+      <c r="I148" s="78"/>
+      <c r="J148" s="64">
+        <f>SUM(J9:J147)-SUM(K9:K147)</f>
+        <v>12</v>
+      </c>
+      <c r="K148" s="64"/>
+      <c r="L148" s="79">
+        <f>SUM(L9:L147)-SUM(M9:M147)</f>
+        <v>29</v>
+      </c>
+      <c r="M148" s="79"/>
+      <c r="N148" s="64">
+        <f>SUM(N9:N147)-SUM(O9:O147)</f>
+        <v>-44</v>
+      </c>
+      <c r="O148" s="64"/>
+      <c r="P148" s="70">
+        <f>SUM(P9:P147)-SUM(Q9:Q147)</f>
+        <v>12</v>
+      </c>
+      <c r="Q148" s="70"/>
+      <c r="R148" s="64">
+        <f>SUM(R9:R147)-SUM(S9:S147)</f>
+        <v>19</v>
+      </c>
+      <c r="S148" s="64"/>
+      <c r="T148" s="71">
+        <f>SUM(T9:T147)-SUM(U9:U147)</f>
+        <v>62</v>
+      </c>
+      <c r="U148" s="71"/>
+      <c r="V148" s="64">
+        <f>SUM(V9:V147)-SUM(W9:W147)</f>
+        <v>-16</v>
+      </c>
+      <c r="W148" s="64"/>
+      <c r="X148" s="72">
+        <f>SUM(X9:X147)-SUM(Y9:Y147)</f>
+        <v>348</v>
+      </c>
+      <c r="Y148" s="72"/>
+      <c r="Z148" s="64">
+        <f>SUM(Z9:Z147)-SUM(AA9:AA147)</f>
+        <v>45</v>
+      </c>
+      <c r="AA148" s="64"/>
+      <c r="AB148" s="65">
+        <f>SUM(AB9:AB147)-SUM(AC9:AC147)</f>
+        <v>-64</v>
+      </c>
+      <c r="AC148" s="65"/>
+      <c r="AD148" s="64">
+        <f>SUM(AD9:AD147)-SUM(AE9:AE147)</f>
+        <v>88</v>
+      </c>
+      <c r="AE148" s="64"/>
+      <c r="AF148" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH54" s="40"/>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="38">
-        <v>34</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="46"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="40"/>
-      <c r="AE55" s="40"/>
-      <c r="AF55" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH55" s="40"/>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="70">
-        <f>SUM(D9:D55)-SUM(E9:E55)</f>
-        <v>-12</v>
-      </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71">
-        <f>SUM(F9:F55)-SUM(G9:G55)</f>
-        <v>-78</v>
-      </c>
-      <c r="G56" s="71"/>
-      <c r="H56" s="72">
-        <f>SUM(H9:H55)-SUM(I9:I55)</f>
-        <v>65</v>
-      </c>
-      <c r="I56" s="72"/>
-      <c r="J56" s="71">
-        <f>SUM(J9:J55)-SUM(K9:K55)</f>
-        <v>-66</v>
-      </c>
-      <c r="K56" s="71"/>
-      <c r="L56" s="73">
-        <f>SUM(L9:L55)-SUM(M9:M55)</f>
-        <v>15</v>
-      </c>
-      <c r="M56" s="73"/>
-      <c r="N56" s="71">
-        <f>SUM(N9:N55)-SUM(O9:O55)</f>
-        <v>-3</v>
-      </c>
-      <c r="O56" s="71"/>
-      <c r="P56" s="83">
-        <f>SUM(P9:P55)-SUM(Q9:Q55)</f>
-        <v>12</v>
-      </c>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="71">
-        <f>SUM(R9:R55)-SUM(S9:S55)</f>
-        <v>43</v>
-      </c>
-      <c r="S56" s="71"/>
-      <c r="T56" s="84">
-        <f>SUM(T9:T55)-SUM(U9:U55)</f>
-        <v>52</v>
-      </c>
-      <c r="U56" s="84"/>
-      <c r="V56" s="71">
-        <f>SUM(V9:V55)-SUM(W9:W55)</f>
-        <v>-5</v>
-      </c>
-      <c r="W56" s="71"/>
-      <c r="X56" s="85">
-        <f>SUM(X9:X55)-SUM(Y9:Y55)</f>
-        <v>354</v>
-      </c>
-      <c r="Y56" s="85"/>
-      <c r="Z56" s="71">
-        <f>SUM(Z9:Z55)-SUM(AA9:AA55)</f>
-        <v>-6</v>
-      </c>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="77">
-        <f>SUM(AB9:AB55)-SUM(AC9:AC55)</f>
-        <v>-260</v>
-      </c>
-      <c r="AC56" s="77"/>
-      <c r="AD56" s="71">
-        <f>SUM(AD9:AD55)-SUM(AE9:AE55)</f>
-        <v>-60</v>
-      </c>
-      <c r="AE56" s="71"/>
-      <c r="AF56" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="20">
-        <f>D56+F56+H56+J56+L56+N56+P56+R56+T56+V56+X56+Z56+AB56+AD56</f>
-        <v>51</v>
-      </c>
-      <c r="AH56" s="51"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
+      <c r="AG148" s="20">
+        <f>D148+F148+H148+J148+L148+N148+P148+R148+T148+V148+X148+Z148+AB148+AD148</f>
+        <v>787</v>
+      </c>
+      <c r="AH148" s="51"/>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="78">
-        <f>D56/24</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79">
-        <f>F56/12</f>
-        <v>-6.5</v>
-      </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80">
-        <f>H56/24</f>
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="I57" s="80"/>
-      <c r="J57" s="79">
-        <f>J56/12</f>
-        <v>-5.5</v>
-      </c>
-      <c r="K57" s="79"/>
-      <c r="L57" s="81">
-        <f>L56/24</f>
-        <v>0.625</v>
-      </c>
-      <c r="M57" s="81"/>
-      <c r="N57" s="79">
-        <f>N56/12</f>
-        <v>-0.25</v>
-      </c>
-      <c r="O57" s="79"/>
-      <c r="P57" s="82">
-        <f>P56/24</f>
+      <c r="D149" s="66">
+        <f>D148/24</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E149" s="66"/>
+      <c r="F149" s="61">
+        <f>F148/12</f>
+        <v>7.75</v>
+      </c>
+      <c r="G149" s="61"/>
+      <c r="H149" s="67">
+        <f>H148/24</f>
+        <v>3.125</v>
+      </c>
+      <c r="I149" s="67"/>
+      <c r="J149" s="61">
+        <f>J148/12</f>
+        <v>1</v>
+      </c>
+      <c r="K149" s="61"/>
+      <c r="L149" s="68">
+        <f>L148/24</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="M149" s="68"/>
+      <c r="N149" s="61">
+        <f>N148/12</f>
+        <v>-3.6666666666666665</v>
+      </c>
+      <c r="O149" s="61"/>
+      <c r="P149" s="69">
+        <f>P148/24</f>
         <v>0.5</v>
       </c>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="79">
-        <f>R56/12</f>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="S57" s="79"/>
-      <c r="T57" s="91">
-        <f>T56/24</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="U57" s="91"/>
-      <c r="V57" s="79">
-        <f>V56/12</f>
-        <v>-0.41666666666666669</v>
-      </c>
-      <c r="W57" s="79"/>
-      <c r="X57" s="92">
-        <f>X56/12</f>
-        <v>29.5</v>
-      </c>
-      <c r="Y57" s="92"/>
-      <c r="Z57" s="79">
-        <f>Z56/12</f>
-        <v>-0.5</v>
-      </c>
-      <c r="AA57" s="79"/>
-      <c r="AB57" s="93">
-        <f>AB56/24</f>
-        <v>-10.833333333333334</v>
-      </c>
-      <c r="AC57" s="93"/>
-      <c r="AD57" s="71"/>
-      <c r="AE57" s="71"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="51"/>
-    </row>
-    <row r="58" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="s">
+      <c r="Q149" s="69"/>
+      <c r="R149" s="61">
+        <f>R148/12</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="S149" s="61"/>
+      <c r="T149" s="60">
+        <f>T148/24</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="U149" s="60"/>
+      <c r="V149" s="61">
+        <f>V148/12</f>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="W149" s="61"/>
+      <c r="X149" s="62">
+        <f>X148/12</f>
+        <v>29</v>
+      </c>
+      <c r="Y149" s="62"/>
+      <c r="Z149" s="61">
+        <f>Z148/12</f>
+        <v>3.75</v>
+      </c>
+      <c r="AA149" s="61"/>
+      <c r="AB149" s="63">
+        <f>AB148/24</f>
+        <v>-2.6666666666666665</v>
+      </c>
+      <c r="AC149" s="63"/>
+      <c r="AD149" s="64"/>
+      <c r="AE149" s="64"/>
+      <c r="AF149" s="20"/>
+      <c r="AG149" s="20"/>
+      <c r="AH149" s="51"/>
+    </row>
+    <row r="150" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="87"/>
-      <c r="Y58" s="87"/>
-      <c r="Z58" s="87"/>
-      <c r="AA58" s="87"/>
-      <c r="AB58" s="87"/>
-      <c r="AC58" s="87"/>
-      <c r="AD58" s="87"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="52">
-        <f>SUM(AF9:AF55)</f>
-        <v>948</v>
-      </c>
-      <c r="AG58" s="52">
-        <f>SUM(AG9:AG55)</f>
+      <c r="B150" s="56"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
+      <c r="R150" s="56"/>
+      <c r="S150" s="56"/>
+      <c r="T150" s="56"/>
+      <c r="U150" s="56"/>
+      <c r="V150" s="56"/>
+      <c r="W150" s="56"/>
+      <c r="X150" s="56"/>
+      <c r="Y150" s="56"/>
+      <c r="Z150" s="56"/>
+      <c r="AA150" s="56"/>
+      <c r="AB150" s="56"/>
+      <c r="AC150" s="56"/>
+      <c r="AD150" s="56"/>
+      <c r="AE150" s="57"/>
+      <c r="AF150" s="52">
+        <f>SUM(AF9:AF147)</f>
+        <v>1052</v>
+      </c>
+      <c r="AG150" s="52">
+        <f>SUM(AG9:AG147)</f>
         <v>999</v>
       </c>
-      <c r="AH58" s="53"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="86" t="s">
+      <c r="AH150" s="53"/>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A151" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="87"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
-      <c r="V59" s="87"/>
-      <c r="W59" s="87"/>
-      <c r="X59" s="87"/>
-      <c r="Y59" s="87"/>
-      <c r="Z59" s="87"/>
-      <c r="AA59" s="87"/>
-      <c r="AB59" s="87"/>
-      <c r="AC59" s="87"/>
-      <c r="AD59" s="87"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="89">
-        <f>AG58-AF58</f>
-        <v>51</v>
-      </c>
-      <c r="AG59" s="90"/>
-      <c r="AH59" s="53"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="56"/>
+      <c r="O151" s="56"/>
+      <c r="P151" s="56"/>
+      <c r="Q151" s="56"/>
+      <c r="R151" s="56"/>
+      <c r="S151" s="56"/>
+      <c r="T151" s="56"/>
+      <c r="U151" s="56"/>
+      <c r="V151" s="56"/>
+      <c r="W151" s="56"/>
+      <c r="X151" s="56"/>
+      <c r="Y151" s="56"/>
+      <c r="Z151" s="56"/>
+      <c r="AA151" s="56"/>
+      <c r="AB151" s="56"/>
+      <c r="AC151" s="56"/>
+      <c r="AD151" s="56"/>
+      <c r="AE151" s="57"/>
+      <c r="AF151" s="58">
+        <f>AG150-AF150</f>
+        <v>-53</v>
+      </c>
+      <c r="AG151" s="59"/>
+      <c r="AH151" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A58:AE58"/>
-    <mergeCell ref="A59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="V57:W57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="V56:W56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -4505,6 +8773,47 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB148:AC148"/>
+    <mergeCell ref="AD148:AE148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="R149:S149"/>
+    <mergeCell ref="P148:Q148"/>
+    <mergeCell ref="R148:S148"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="X148:Y148"/>
+    <mergeCell ref="Z148:AA148"/>
+    <mergeCell ref="A150:AE150"/>
+    <mergeCell ref="A151:AE151"/>
+    <mergeCell ref="AF151:AG151"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="V149:W149"/>
+    <mergeCell ref="X149:Y149"/>
+    <mergeCell ref="Z149:AA149"/>
+    <mergeCell ref="AB149:AC149"/>
+    <mergeCell ref="AD149:AE149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4513,24 +8822,470 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A6:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="94">
+        <v>-12</v>
+      </c>
+      <c r="C7" s="94">
+        <v>128</v>
+      </c>
+      <c r="D7" s="94">
+        <v>70</v>
+      </c>
+      <c r="E7" s="94">
+        <f>D7-C7</f>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="94">
+        <v>141</v>
+      </c>
+      <c r="C8" s="94">
+        <v>93</v>
+      </c>
+      <c r="D8" s="94">
+        <v>0</v>
+      </c>
+      <c r="E8" s="94">
+        <f t="shared" ref="E8:E20" si="0">D8-C8</f>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="94">
+        <v>75</v>
+      </c>
+      <c r="C9" s="94">
+        <v>75</v>
+      </c>
+      <c r="D9" s="94">
+        <v>10</v>
+      </c>
+      <c r="E9" s="94">
+        <f t="shared" si="0"/>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="94">
+        <v>30</v>
+      </c>
+      <c r="C10" s="94">
+        <v>12</v>
+      </c>
+      <c r="D10" s="94">
+        <v>2</v>
+      </c>
+      <c r="E10" s="94">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="94">
+        <v>15</v>
+      </c>
+      <c r="C11" s="94">
+        <v>29</v>
+      </c>
+      <c r="D11" s="94">
+        <v>14</v>
+      </c>
+      <c r="E11" s="94">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="94">
+        <v>-26</v>
+      </c>
+      <c r="C12" s="94">
+        <v>-44</v>
+      </c>
+      <c r="D12" s="94">
+        <v>1</v>
+      </c>
+      <c r="E12" s="94">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="94">
+        <v>13</v>
+      </c>
+      <c r="C13" s="94">
+        <v>12</v>
+      </c>
+      <c r="D13" s="94">
+        <v>1</v>
+      </c>
+      <c r="E13" s="94">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="94">
+        <v>188</v>
+      </c>
+      <c r="C14" s="94">
+        <v>19</v>
+      </c>
+      <c r="D14" s="94">
+        <v>5</v>
+      </c>
+      <c r="E14" s="94">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="94">
+        <v>52</v>
+      </c>
+      <c r="C15" s="94">
+        <v>62</v>
+      </c>
+      <c r="D15" s="94">
+        <v>8</v>
+      </c>
+      <c r="E15" s="94">
+        <f t="shared" si="0"/>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="94">
+        <v>60</v>
+      </c>
+      <c r="C16" s="94">
+        <v>-16</v>
+      </c>
+      <c r="D16" s="94">
+        <v>12</v>
+      </c>
+      <c r="E16" s="94">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="94">
+        <v>-173</v>
+      </c>
+      <c r="C17" s="94">
+        <v>-64</v>
+      </c>
+      <c r="D17" s="94">
+        <v>84</v>
+      </c>
+      <c r="E17" s="94">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="94">
+        <v>427</v>
+      </c>
+      <c r="C18" s="94">
+        <v>348</v>
+      </c>
+      <c r="D18" s="94">
+        <v>128</v>
+      </c>
+      <c r="E18" s="94">
+        <f t="shared" si="0"/>
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="94">
+        <v>28</v>
+      </c>
+      <c r="C19" s="94">
+        <v>45</v>
+      </c>
+      <c r="D19" s="94">
+        <v>12</v>
+      </c>
+      <c r="E19" s="94">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="94">
+        <v>-32</v>
+      </c>
+      <c r="C20" s="94">
+        <v>88</v>
+      </c>
+      <c r="D20" s="94">
+        <v>137</v>
+      </c>
+      <c r="E20" s="94">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97">
+        <f>SUM(B7:B20)</f>
+        <v>786</v>
+      </c>
+      <c r="C21" s="97">
+        <f>SUM(C7:C20)</f>
+        <v>787</v>
+      </c>
+      <c r="D21" s="97">
+        <f>SUM(D7:D20)</f>
+        <v>484</v>
+      </c>
+      <c r="E21" s="97">
+        <f>SUM(E7:E20)</f>
+        <v>-303</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="94">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="94">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="94">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="96"/>
+      <c r="D22" s="97">
+        <v>484</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Tổng hợp nhập xuất tồn.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="16575" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="16572" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X7" authorId="0" shapeId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z7" authorId="0" shapeId="0">
+    <comment ref="Z7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD7" authorId="0" shapeId="0">
+    <comment ref="AD7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="113">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -685,12 +685,30 @@
   </si>
   <si>
     <t>Kiểm kho kín ngày 10/6</t>
+  </si>
+  <si>
+    <t>Tồn kho mở</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Ngọc anh thái bình</t>
+  </si>
+  <si>
+    <t>Mai hồng sơn la</t>
+  </si>
+  <si>
+    <t>Chị thaắm yên bái</t>
+  </si>
+  <si>
+    <t>thanh hà vĩnh phúc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -999,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,88 +1107,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1206,19 +1154,86 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,7 +1331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,50 +1540,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:Y1048576"/>
+      <pane ySplit="8" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG9" sqref="AG9:AG157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="6" customWidth="1"/>
     <col min="6" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="3.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3.28515625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="3.33203125" style="6" customWidth="1"/>
     <col min="14" max="14" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3.28515625" style="6" customWidth="1"/>
+    <col min="15" max="17" width="3.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="4" style="6" customWidth="1"/>
-    <col min="19" max="21" width="3.28515625" style="6" customWidth="1"/>
+    <col min="19" max="21" width="3.33203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" style="6" customWidth="1"/>
     <col min="25" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="6" customWidth="1"/>
     <col min="30" max="30" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="31" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1603,12 +1618,12 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1643,236 +1658,236 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+    </row>
+    <row r="4" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
         <v>43890</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="74" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="91" t="s">
+    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="92" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="74" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="93" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="93"/>
-      <c r="N7" s="74" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="80" t="s">
+      <c r="O7" s="60"/>
+      <c r="P7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="74" t="s">
+      <c r="Q7" s="77"/>
+      <c r="R7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="81" t="s">
+      <c r="S7" s="60"/>
+      <c r="T7" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="81"/>
-      <c r="V7" s="74" t="s">
+      <c r="U7" s="78"/>
+      <c r="V7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="74"/>
-      <c r="X7" s="82" t="s">
+      <c r="W7" s="60"/>
+      <c r="X7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="74" t="s">
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="73" t="s">
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="74" t="s">
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75" t="s">
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AG7" s="75" t="s">
+      <c r="AG7" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="74"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
+      <c r="AH7" s="60"/>
+    </row>
+    <row r="8" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -1957,11 +1972,11 @@
       <c r="AE8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="74"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="60"/>
+    </row>
+    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21">
         <v>43890</v>
@@ -2035,7 +2050,7 @@
       </c>
       <c r="AH9" s="20"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="29">
         <v>43891</v>
@@ -2088,16 +2103,16 @@
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF148" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <f t="shared" ref="AF10:AF73" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
         <v>40</v>
       </c>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG147" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <f t="shared" ref="AG10:AG73" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>0</v>
       </c>
       <c r="AH10" s="30"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="29">
         <v>43891</v>
@@ -2147,7 +2162,7 @@
       </c>
       <c r="AH11" s="30"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="29">
         <v>43891</v>
@@ -2195,7 +2210,7 @@
       </c>
       <c r="AH12" s="30"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="29">
         <v>43893</v>
@@ -2247,7 +2262,7 @@
       </c>
       <c r="AH13" s="30"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="29">
         <v>43899</v>
@@ -2297,7 +2312,7 @@
       </c>
       <c r="AH14" s="30"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="29">
         <v>43899</v>
@@ -2351,7 +2366,7 @@
       </c>
       <c r="AH15" s="30"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="29">
         <v>43900</v>
@@ -2399,7 +2414,7 @@
       </c>
       <c r="AH16" s="30"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="29">
         <v>43900</v>
@@ -2447,7 +2462,7 @@
       </c>
       <c r="AH17" s="30"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="29">
         <v>43901</v>
@@ -2495,7 +2510,7 @@
       </c>
       <c r="AH18" s="30"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="29">
         <v>43902</v>
@@ -2543,7 +2558,7 @@
       </c>
       <c r="AH19" s="30"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="29">
         <v>43903</v>
@@ -2593,7 +2608,7 @@
       </c>
       <c r="AH20" s="30"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="29">
         <v>43903</v>
@@ -2643,7 +2658,7 @@
       </c>
       <c r="AH21" s="30"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="29">
         <v>43904</v>
@@ -2691,7 +2706,7 @@
       </c>
       <c r="AH22" s="30"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="29">
         <v>43904</v>
@@ -2741,7 +2756,7 @@
       </c>
       <c r="AH23" s="30"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="29">
         <v>43904</v>
@@ -2791,7 +2806,7 @@
       </c>
       <c r="AH24" s="30"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="29">
         <v>43904</v>
@@ -2843,7 +2858,7 @@
       </c>
       <c r="AH25" s="30"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="29">
         <v>43906</v>
@@ -2891,7 +2906,7 @@
       </c>
       <c r="AH26" s="30"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="29">
         <v>43907</v>
@@ -2939,7 +2954,7 @@
       </c>
       <c r="AH27" s="30"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="29">
         <v>43907</v>
@@ -2987,7 +3002,7 @@
       </c>
       <c r="AH28" s="30"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="29">
         <v>43907</v>
@@ -3037,7 +3052,7 @@
       </c>
       <c r="AH29" s="30"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="29">
         <v>43908</v>
@@ -3089,7 +3104,7 @@
       </c>
       <c r="AH30" s="30"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="29">
         <v>43908</v>
@@ -3137,7 +3152,7 @@
       </c>
       <c r="AH31" s="30"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="29">
         <v>43908</v>
@@ -3187,7 +3202,7 @@
       </c>
       <c r="AH32" s="30"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>12</v>
       </c>
@@ -3241,7 +3256,7 @@
       </c>
       <c r="AH33" s="30"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>13</v>
       </c>
@@ -3291,7 +3306,7 @@
       </c>
       <c r="AH34" s="30"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>14</v>
       </c>
@@ -3345,7 +3360,7 @@
       </c>
       <c r="AH35" s="30"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>15</v>
       </c>
@@ -3395,7 +3410,7 @@
       </c>
       <c r="AH36" s="30"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>16</v>
       </c>
@@ -3449,7 +3464,7 @@
       </c>
       <c r="AH37" s="30"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>17</v>
       </c>
@@ -3505,7 +3520,7 @@
       </c>
       <c r="AH38" s="30"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>18</v>
       </c>
@@ -3557,7 +3572,7 @@
       </c>
       <c r="AH39" s="30"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>19</v>
       </c>
@@ -3607,7 +3622,7 @@
       </c>
       <c r="AH40" s="30"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>20</v>
       </c>
@@ -3657,7 +3672,7 @@
       </c>
       <c r="AH41" s="30"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>21</v>
       </c>
@@ -3725,7 +3740,7 @@
       </c>
       <c r="AH42" s="30"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>22</v>
       </c>
@@ -3777,7 +3792,7 @@
       </c>
       <c r="AH43" s="30"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>23</v>
       </c>
@@ -3827,7 +3842,7 @@
       </c>
       <c r="AH44" s="30"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>24</v>
       </c>
@@ -3879,7 +3894,7 @@
       </c>
       <c r="AH45" s="30"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>25</v>
       </c>
@@ -3931,7 +3946,7 @@
       </c>
       <c r="AH46" s="30"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>26</v>
       </c>
@@ -3997,7 +4012,7 @@
       </c>
       <c r="AH47" s="30"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>27</v>
       </c>
@@ -4051,7 +4066,7 @@
       </c>
       <c r="AH48" s="30"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>28</v>
       </c>
@@ -4107,7 +4122,7 @@
       </c>
       <c r="AH49" s="30"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>29</v>
       </c>
@@ -4157,7 +4172,7 @@
       </c>
       <c r="AH50" s="30"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="29">
         <v>43920</v>
@@ -4195,11 +4210,17 @@
       <c r="AC51" s="37"/>
       <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
+      <c r="AF51" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH51" s="30"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="29">
         <v>43920</v>
@@ -4237,11 +4258,17 @@
       <c r="AC52" s="37"/>
       <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
+      <c r="AF52" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG52" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH52" s="30"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="29">
         <v>43920</v>
@@ -4279,11 +4306,17 @@
       </c>
       <c r="AD53" s="30"/>
       <c r="AE53" s="30"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
+      <c r="AF53" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG53" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH53" s="30"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="29">
         <v>43921</v>
@@ -4321,11 +4354,17 @@
       <c r="AC54" s="37"/>
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
+      <c r="AF54" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG54" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH54" s="30"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="29">
         <v>43921</v>
@@ -4365,11 +4404,17 @@
       <c r="AC55" s="37"/>
       <c r="AD55" s="30"/>
       <c r="AE55" s="30"/>
-      <c r="AF55" s="20"/>
-      <c r="AG55" s="20"/>
+      <c r="AF55" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AG55" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH55" s="30"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="29">
         <v>43922</v>
@@ -4407,11 +4452,17 @@
       <c r="AC56" s="37"/>
       <c r="AD56" s="30"/>
       <c r="AE56" s="30"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
+      <c r="AF56" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG56" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH56" s="30"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="29">
         <v>43925</v>
@@ -4449,11 +4500,17 @@
       <c r="AC57" s="37"/>
       <c r="AD57" s="30"/>
       <c r="AE57" s="30"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
+      <c r="AF57" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG57" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH57" s="30"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="29">
         <v>43929</v>
@@ -4491,11 +4548,17 @@
       <c r="AC58" s="37"/>
       <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
+      <c r="AF58" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG58" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH58" s="30"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="29">
         <v>43930</v>
@@ -4533,11 +4596,17 @@
       <c r="AC59" s="37"/>
       <c r="AD59" s="30"/>
       <c r="AE59" s="30"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
+      <c r="AF59" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG59" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH59" s="30"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="29">
         <v>43931</v>
@@ -4575,11 +4644,17 @@
       <c r="AC60" s="37"/>
       <c r="AD60" s="30"/>
       <c r="AE60" s="30"/>
-      <c r="AF60" s="20"/>
-      <c r="AG60" s="20"/>
+      <c r="AF60" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG60" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH60" s="30"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="29">
         <v>43932</v>
@@ -4617,11 +4692,17 @@
       </c>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30"/>
-      <c r="AF61" s="20"/>
-      <c r="AG61" s="20"/>
+      <c r="AF61" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG61" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH61" s="30"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="29">
         <v>43933</v>
@@ -4659,11 +4740,17 @@
       <c r="AC62" s="37"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30"/>
-      <c r="AF62" s="20"/>
-      <c r="AG62" s="20"/>
+      <c r="AF62" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AG62" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH62" s="30"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="29">
         <v>43935</v>
@@ -4713,11 +4800,17 @@
       </c>
       <c r="AD63" s="30"/>
       <c r="AE63" s="30"/>
-      <c r="AF63" s="20"/>
-      <c r="AG63" s="20"/>
+      <c r="AF63" s="20">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="AG63" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH63" s="30"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="29">
         <v>43935</v>
@@ -4755,11 +4848,17 @@
       </c>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30"/>
-      <c r="AF64" s="20"/>
-      <c r="AG64" s="20"/>
+      <c r="AF64" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG64" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH64" s="30"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="29">
         <v>43936</v>
@@ -4803,11 +4902,17 @@
       <c r="AC65" s="37"/>
       <c r="AD65" s="30"/>
       <c r="AE65" s="30"/>
-      <c r="AF65" s="20"/>
-      <c r="AG65" s="20"/>
+      <c r="AF65" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG65" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH65" s="30"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="29">
         <v>43937</v>
@@ -4845,11 +4950,17 @@
       <c r="AC66" s="37"/>
       <c r="AD66" s="30"/>
       <c r="AE66" s="30"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
+      <c r="AF66" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG66" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH66" s="30"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="29">
         <v>43937</v>
@@ -4887,11 +4998,17 @@
       <c r="AC67" s="37"/>
       <c r="AD67" s="30"/>
       <c r="AE67" s="30"/>
-      <c r="AF67" s="20"/>
-      <c r="AG67" s="20"/>
+      <c r="AF67" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AG67" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH67" s="30"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="29">
         <v>43938</v>
@@ -4929,11 +5046,17 @@
       <c r="AC68" s="37"/>
       <c r="AD68" s="30"/>
       <c r="AE68" s="30"/>
-      <c r="AF68" s="20"/>
-      <c r="AG68" s="20"/>
+      <c r="AF68" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG68" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH68" s="30"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="29">
         <v>43941</v>
@@ -4971,11 +5094,17 @@
       <c r="AC69" s="37"/>
       <c r="AD69" s="30"/>
       <c r="AE69" s="30"/>
-      <c r="AF69" s="20"/>
-      <c r="AG69" s="20"/>
+      <c r="AF69" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG69" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH69" s="30"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="29">
         <v>43941</v>
@@ -5019,11 +5148,17 @@
       <c r="AE70" s="30">
         <v>2</v>
       </c>
-      <c r="AF70" s="20"/>
-      <c r="AG70" s="20"/>
+      <c r="AF70" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AG70" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH70" s="30"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="29">
         <v>43941</v>
@@ -5067,11 +5202,17 @@
       <c r="AC71" s="37"/>
       <c r="AD71" s="30"/>
       <c r="AE71" s="30"/>
-      <c r="AF71" s="20"/>
-      <c r="AG71" s="20"/>
+      <c r="AF71" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AG71" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH71" s="30"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="29">
         <v>43942</v>
@@ -5113,11 +5254,17 @@
       <c r="AC72" s="37"/>
       <c r="AD72" s="30"/>
       <c r="AE72" s="30"/>
-      <c r="AF72" s="20"/>
-      <c r="AG72" s="20"/>
+      <c r="AF72" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AG72" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH72" s="30"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="29">
         <v>43942</v>
@@ -5155,11 +5302,17 @@
       <c r="AC73" s="37"/>
       <c r="AD73" s="30"/>
       <c r="AE73" s="30"/>
-      <c r="AF73" s="20"/>
-      <c r="AG73" s="20"/>
+      <c r="AF73" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AG73" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="AH73" s="30"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="29">
         <v>43942</v>
@@ -5201,11 +5354,17 @@
       <c r="AC74" s="37"/>
       <c r="AD74" s="30"/>
       <c r="AE74" s="30"/>
-      <c r="AF74" s="20"/>
-      <c r="AG74" s="20"/>
+      <c r="AF74" s="20">
+        <f t="shared" ref="AF74:AF137" si="2">E74+G74+I74+K74+M74+O74+Q74+S74+U74+W74+Y74+AA74+AC74+AE74</f>
+        <v>48</v>
+      </c>
+      <c r="AG74" s="20">
+        <f t="shared" ref="AG74:AG137" si="3">D74+F74+H74+J74+L74+N74+P74+R74+T74+V74+X74+Z74+AB74+AD74</f>
+        <v>0</v>
+      </c>
       <c r="AH74" s="30"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="29">
         <v>43943</v>
@@ -5243,11 +5402,17 @@
       </c>
       <c r="AD75" s="30"/>
       <c r="AE75" s="30"/>
-      <c r="AF75" s="20"/>
-      <c r="AG75" s="20"/>
+      <c r="AF75" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG75" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH75" s="30"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="29">
         <v>43944</v>
@@ -5285,11 +5450,17 @@
       <c r="AC76" s="37"/>
       <c r="AD76" s="30"/>
       <c r="AE76" s="30"/>
-      <c r="AF76" s="20"/>
-      <c r="AG76" s="20"/>
+      <c r="AF76" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AG76" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH76" s="30"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="29">
         <v>43944</v>
@@ -5327,11 +5498,17 @@
       <c r="AC77" s="37"/>
       <c r="AD77" s="30"/>
       <c r="AE77" s="30"/>
-      <c r="AF77" s="20"/>
-      <c r="AG77" s="20"/>
+      <c r="AF77" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG77" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH77" s="30"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="29">
         <v>43944</v>
@@ -5369,11 +5546,17 @@
       </c>
       <c r="AD78" s="30"/>
       <c r="AE78" s="30"/>
-      <c r="AF78" s="20"/>
-      <c r="AG78" s="20"/>
+      <c r="AF78" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG78" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH78" s="30"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="29">
         <v>43944</v>
@@ -5411,11 +5594,17 @@
       <c r="AC79" s="37"/>
       <c r="AD79" s="30"/>
       <c r="AE79" s="30"/>
-      <c r="AF79" s="20"/>
-      <c r="AG79" s="20"/>
+      <c r="AF79" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG79" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH79" s="30"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="29">
         <v>43944</v>
@@ -5453,11 +5642,17 @@
       <c r="AC80" s="37"/>
       <c r="AD80" s="30"/>
       <c r="AE80" s="30"/>
-      <c r="AF80" s="20"/>
-      <c r="AG80" s="20"/>
+      <c r="AF80" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG80" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH80" s="30"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="29">
         <v>43945</v>
@@ -5495,11 +5690,17 @@
       <c r="AC81" s="37"/>
       <c r="AD81" s="30"/>
       <c r="AE81" s="30"/>
-      <c r="AF81" s="20"/>
-      <c r="AG81" s="20"/>
+      <c r="AF81" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG81" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH81" s="30"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="29">
         <v>43946</v>
@@ -5539,11 +5740,17 @@
       <c r="AC82" s="37"/>
       <c r="AD82" s="30"/>
       <c r="AE82" s="30"/>
-      <c r="AF82" s="20"/>
-      <c r="AG82" s="20"/>
+      <c r="AF82" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG82" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH82" s="30"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="29">
         <v>43946</v>
@@ -5597,11 +5804,17 @@
       <c r="AE83" s="30">
         <v>2</v>
       </c>
-      <c r="AF83" s="20"/>
-      <c r="AG83" s="20"/>
+      <c r="AF83" s="20">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AG83" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH83" s="30"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="29">
         <v>43946</v>
@@ -5639,11 +5852,17 @@
       <c r="AC84" s="37"/>
       <c r="AD84" s="30"/>
       <c r="AE84" s="30"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
+      <c r="AF84" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AG84" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH84" s="30"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="29">
         <v>43947</v>
@@ -5685,11 +5904,17 @@
       </c>
       <c r="AD85" s="30"/>
       <c r="AE85" s="30"/>
-      <c r="AF85" s="20"/>
-      <c r="AG85" s="20"/>
+      <c r="AF85" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AG85" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH85" s="30"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="29">
         <v>43947</v>
@@ -5727,11 +5952,17 @@
       <c r="AC86" s="37"/>
       <c r="AD86" s="30"/>
       <c r="AE86" s="30"/>
-      <c r="AF86" s="20"/>
-      <c r="AG86" s="20"/>
+      <c r="AF86" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG86" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH86" s="30"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="29">
         <v>43947</v>
@@ -5769,11 +6000,17 @@
       <c r="AC87" s="37"/>
       <c r="AD87" s="30"/>
       <c r="AE87" s="30"/>
-      <c r="AF87" s="20"/>
-      <c r="AG87" s="20"/>
+      <c r="AF87" s="20">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AG87" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH87" s="30"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="29">
         <v>43949</v>
@@ -5813,11 +6050,17 @@
       </c>
       <c r="AD88" s="30"/>
       <c r="AE88" s="30"/>
-      <c r="AF88" s="20"/>
-      <c r="AG88" s="20"/>
+      <c r="AF88" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG88" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH88" s="30"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="29">
         <v>43937</v>
@@ -5857,11 +6100,17 @@
       <c r="AC89" s="37"/>
       <c r="AD89" s="30"/>
       <c r="AE89" s="30"/>
-      <c r="AF89" s="20"/>
-      <c r="AG89" s="20"/>
+      <c r="AF89" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
       <c r="AH89" s="30"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="29">
         <v>43940</v>
@@ -5909,11 +6158,17 @@
         <v>20</v>
       </c>
       <c r="AE90" s="30"/>
-      <c r="AF90" s="20"/>
-      <c r="AG90" s="20"/>
+      <c r="AF90" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="20">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
       <c r="AH90" s="30"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="29">
         <v>43940</v>
@@ -5961,11 +6216,17 @@
       <c r="AC91" s="37"/>
       <c r="AD91" s="30"/>
       <c r="AE91" s="30"/>
-      <c r="AF91" s="20"/>
-      <c r="AG91" s="20"/>
+      <c r="AF91" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="20">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
       <c r="AH91" s="30"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="29">
         <v>43948</v>
@@ -6003,11 +6264,17 @@
       <c r="AC92" s="37"/>
       <c r="AD92" s="30"/>
       <c r="AE92" s="30"/>
-      <c r="AF92" s="20"/>
-      <c r="AG92" s="20"/>
+      <c r="AF92" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="AH92" s="30"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="29">
         <v>43951</v>
@@ -6049,11 +6316,17 @@
       <c r="AC93" s="37"/>
       <c r="AD93" s="30"/>
       <c r="AE93" s="30"/>
-      <c r="AF93" s="20"/>
-      <c r="AG93" s="20"/>
+      <c r="AF93" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AG93" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH93" s="30"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="29">
         <v>43951</v>
@@ -6091,11 +6364,17 @@
       <c r="AC94" s="37"/>
       <c r="AD94" s="30"/>
       <c r="AE94" s="30"/>
-      <c r="AF94" s="20"/>
-      <c r="AG94" s="20"/>
+      <c r="AF94" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG94" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH94" s="30"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="29">
         <v>43953</v>
@@ -6133,11 +6412,17 @@
       </c>
       <c r="AD95" s="30"/>
       <c r="AE95" s="30"/>
-      <c r="AF95" s="20"/>
-      <c r="AG95" s="20"/>
+      <c r="AF95" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG95" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH95" s="30"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="29">
         <v>43955</v>
@@ -6189,11 +6474,17 @@
       </c>
       <c r="AD96" s="30"/>
       <c r="AE96" s="30"/>
-      <c r="AF96" s="20"/>
-      <c r="AG96" s="20"/>
+      <c r="AF96" s="20">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="AG96" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH96" s="30"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="29">
         <v>43955</v>
@@ -6235,11 +6526,17 @@
       <c r="AC97" s="37"/>
       <c r="AD97" s="30"/>
       <c r="AE97" s="30"/>
-      <c r="AF97" s="20"/>
-      <c r="AG97" s="20"/>
+      <c r="AF97" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG97" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH97" s="30"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="29">
         <v>43956</v>
@@ -6281,11 +6578,17 @@
       <c r="AC98" s="37"/>
       <c r="AD98" s="30"/>
       <c r="AE98" s="30"/>
-      <c r="AF98" s="20"/>
-      <c r="AG98" s="20"/>
+      <c r="AF98" s="20">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG98" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH98" s="30"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="29">
         <v>43956</v>
@@ -6323,11 +6626,17 @@
       <c r="AC99" s="37"/>
       <c r="AD99" s="30"/>
       <c r="AE99" s="30"/>
-      <c r="AF99" s="20"/>
-      <c r="AG99" s="20"/>
+      <c r="AF99" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG99" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH99" s="30"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="29">
         <v>43956</v>
@@ -6365,11 +6674,17 @@
       </c>
       <c r="AD100" s="30"/>
       <c r="AE100" s="30"/>
-      <c r="AF100" s="20"/>
-      <c r="AG100" s="20"/>
+      <c r="AF100" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG100" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH100" s="30"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="29">
         <v>43957</v>
@@ -6409,11 +6724,17 @@
       <c r="AC101" s="37"/>
       <c r="AD101" s="30"/>
       <c r="AE101" s="30"/>
-      <c r="AF101" s="20"/>
-      <c r="AG101" s="20"/>
+      <c r="AF101" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG101" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH101" s="30"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="29">
         <v>43987</v>
@@ -6461,11 +6782,17 @@
       </c>
       <c r="AD102" s="30"/>
       <c r="AE102" s="30"/>
-      <c r="AF102" s="20"/>
-      <c r="AG102" s="20"/>
+      <c r="AF102" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AG102" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH102" s="30"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="29">
         <v>43957</v>
@@ -6503,11 +6830,17 @@
       <c r="AC103" s="37"/>
       <c r="AD103" s="30"/>
       <c r="AE103" s="30"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
+      <c r="AF103" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG103" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH103" s="30"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="29">
         <v>43987</v>
@@ -6547,11 +6880,17 @@
       </c>
       <c r="AD104" s="30"/>
       <c r="AE104" s="30"/>
-      <c r="AF104" s="20"/>
-      <c r="AG104" s="20"/>
+      <c r="AF104" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG104" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH104" s="30"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="29">
         <v>43959</v>
@@ -6589,11 +6928,17 @@
       <c r="AC105" s="37"/>
       <c r="AD105" s="30"/>
       <c r="AE105" s="30"/>
-      <c r="AF105" s="20"/>
-      <c r="AG105" s="20"/>
+      <c r="AF105" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG105" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH105" s="30"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="29">
         <v>43959</v>
@@ -6631,11 +6976,17 @@
       <c r="AC106" s="37"/>
       <c r="AD106" s="30"/>
       <c r="AE106" s="30"/>
-      <c r="AF106" s="20"/>
-      <c r="AG106" s="20"/>
+      <c r="AF106" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG106" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH106" s="30"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="29">
         <v>43960</v>
@@ -6677,11 +7028,17 @@
       <c r="AC107" s="37"/>
       <c r="AD107" s="30"/>
       <c r="AE107" s="30"/>
-      <c r="AF107" s="20"/>
-      <c r="AG107" s="20"/>
+      <c r="AF107" s="20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AG107" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH107" s="30"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="29">
         <v>43960</v>
@@ -6721,11 +7078,17 @@
       <c r="AC108" s="37"/>
       <c r="AD108" s="30"/>
       <c r="AE108" s="30"/>
-      <c r="AF108" s="20"/>
-      <c r="AG108" s="20"/>
+      <c r="AF108" s="20">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG108" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH108" s="30"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="29">
         <v>43960</v>
@@ -6763,11 +7126,17 @@
       <c r="AC109" s="37"/>
       <c r="AD109" s="30"/>
       <c r="AE109" s="30"/>
-      <c r="AF109" s="20"/>
-      <c r="AG109" s="20"/>
+      <c r="AF109" s="20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AG109" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH109" s="30"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="29">
         <v>43960</v>
@@ -6807,11 +7176,17 @@
       <c r="AC110" s="37"/>
       <c r="AD110" s="30"/>
       <c r="AE110" s="30"/>
-      <c r="AF110" s="20"/>
-      <c r="AG110" s="20"/>
+      <c r="AF110" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AG110" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH110" s="30"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="29">
         <v>43960</v>
@@ -6849,11 +7224,17 @@
       <c r="AC111" s="37"/>
       <c r="AD111" s="30"/>
       <c r="AE111" s="30"/>
-      <c r="AF111" s="20"/>
-      <c r="AG111" s="20"/>
+      <c r="AF111" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AG111" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH111" s="30"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="29">
         <v>43960</v>
@@ -6891,11 +7272,17 @@
       <c r="AC112" s="37"/>
       <c r="AD112" s="30"/>
       <c r="AE112" s="30"/>
-      <c r="AF112" s="20"/>
-      <c r="AG112" s="20"/>
+      <c r="AF112" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG112" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH112" s="30"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="29">
         <v>43960</v>
@@ -6943,11 +7330,17 @@
       </c>
       <c r="AD113" s="30"/>
       <c r="AE113" s="30"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
+      <c r="AF113" s="20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AG113" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH113" s="30"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="29">
         <v>43962</v>
@@ -6987,11 +7380,17 @@
       <c r="AC114" s="37"/>
       <c r="AD114" s="30"/>
       <c r="AE114" s="30"/>
-      <c r="AF114" s="20"/>
-      <c r="AG114" s="20"/>
+      <c r="AF114" s="20">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AG114" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH114" s="30"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="29">
         <v>43962</v>
@@ -7029,11 +7428,17 @@
       <c r="AC115" s="37"/>
       <c r="AD115" s="30"/>
       <c r="AE115" s="30"/>
-      <c r="AF115" s="20"/>
-      <c r="AG115" s="20"/>
+      <c r="AF115" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AG115" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH115" s="30"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="29">
         <v>43963</v>
@@ -7071,11 +7476,17 @@
       <c r="AC116" s="37"/>
       <c r="AD116" s="30"/>
       <c r="AE116" s="30"/>
-      <c r="AF116" s="20"/>
-      <c r="AG116" s="20"/>
+      <c r="AF116" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG116" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH116" s="30"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="29">
         <v>43965</v>
@@ -7115,11 +7526,17 @@
       <c r="AC117" s="37"/>
       <c r="AD117" s="30"/>
       <c r="AE117" s="30"/>
-      <c r="AF117" s="20"/>
-      <c r="AG117" s="20"/>
+      <c r="AF117" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG117" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH117" s="30"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>30</v>
       </c>
@@ -7166,16 +7583,16 @@
       <c r="AD118" s="30"/>
       <c r="AE118" s="30"/>
       <c r="AF118" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AG118" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH118" s="30"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>31</v>
       </c>
@@ -7220,16 +7637,16 @@
       <c r="AD119" s="30"/>
       <c r="AE119" s="30"/>
       <c r="AF119" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="AG119" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH119" s="30"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>32</v>
       </c>
@@ -7270,16 +7687,16 @@
       <c r="AD120" s="40"/>
       <c r="AE120" s="40"/>
       <c r="AF120" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AG120" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH120" s="40"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="39">
         <v>43967</v>
@@ -7323,11 +7740,17 @@
       <c r="AC121" s="47"/>
       <c r="AD121" s="40"/>
       <c r="AE121" s="40"/>
-      <c r="AF121" s="20"/>
-      <c r="AG121" s="20"/>
+      <c r="AF121" s="20">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="AG121" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH121" s="40"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="39">
         <v>43968</v>
@@ -7365,11 +7788,17 @@
       <c r="AC122" s="47"/>
       <c r="AD122" s="40"/>
       <c r="AE122" s="40"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
+      <c r="AF122" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG122" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH122" s="40"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="39">
         <v>43969</v>
@@ -7409,11 +7838,17 @@
       <c r="AC123" s="47"/>
       <c r="AD123" s="40"/>
       <c r="AE123" s="40"/>
-      <c r="AF123" s="20"/>
-      <c r="AG123" s="20"/>
+      <c r="AF123" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG123" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH123" s="40"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="39">
         <v>43969</v>
@@ -7453,11 +7888,17 @@
       <c r="AC124" s="47"/>
       <c r="AD124" s="40"/>
       <c r="AE124" s="40"/>
-      <c r="AF124" s="20"/>
-      <c r="AG124" s="20"/>
+      <c r="AF124" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG124" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH124" s="40"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="39">
         <v>43969</v>
@@ -7495,11 +7936,17 @@
       <c r="AC125" s="47"/>
       <c r="AD125" s="40"/>
       <c r="AE125" s="40"/>
-      <c r="AF125" s="20"/>
-      <c r="AG125" s="20"/>
+      <c r="AF125" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AG125" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH125" s="40"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="38"/>
       <c r="B126" s="39">
         <v>43969</v>
@@ -7537,11 +7984,17 @@
       <c r="AC126" s="47"/>
       <c r="AD126" s="40"/>
       <c r="AE126" s="40"/>
-      <c r="AF126" s="20"/>
-      <c r="AG126" s="20"/>
+      <c r="AF126" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AG126" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH126" s="40"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="39">
         <v>43970</v>
@@ -7579,11 +8032,17 @@
       </c>
       <c r="AD127" s="40"/>
       <c r="AE127" s="40"/>
-      <c r="AF127" s="20"/>
-      <c r="AG127" s="20"/>
+      <c r="AF127" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG127" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH127" s="40"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="39">
         <v>43971</v>
@@ -7621,11 +8080,17 @@
       <c r="AC128" s="47"/>
       <c r="AD128" s="40"/>
       <c r="AE128" s="40"/>
-      <c r="AF128" s="20"/>
-      <c r="AG128" s="20"/>
+      <c r="AF128" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AG128" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH128" s="40"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="39">
         <v>43971</v>
@@ -7675,11 +8140,17 @@
       </c>
       <c r="AD129" s="40"/>
       <c r="AE129" s="40"/>
-      <c r="AF129" s="20"/>
-      <c r="AG129" s="20"/>
+      <c r="AF129" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AG129" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH129" s="40"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="39">
         <v>43972</v>
@@ -7717,11 +8188,17 @@
       <c r="AE130" s="40">
         <v>1</v>
       </c>
-      <c r="AF130" s="20"/>
-      <c r="AG130" s="20"/>
+      <c r="AF130" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG130" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH130" s="40"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="B131" s="39">
         <v>43974</v>
@@ -7761,11 +8238,17 @@
       <c r="AC131" s="47"/>
       <c r="AD131" s="40"/>
       <c r="AE131" s="40"/>
-      <c r="AF131" s="20"/>
-      <c r="AG131" s="20"/>
+      <c r="AF131" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AG131" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH131" s="40"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="38"/>
       <c r="B132" s="39">
         <v>43976</v>
@@ -7807,11 +8290,17 @@
       <c r="AC132" s="47"/>
       <c r="AD132" s="40"/>
       <c r="AE132" s="40"/>
-      <c r="AF132" s="20"/>
-      <c r="AG132" s="20"/>
+      <c r="AF132" s="20">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="AG132" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH132" s="40"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="38"/>
       <c r="B133" s="39">
         <v>43976</v>
@@ -7851,11 +8340,17 @@
       <c r="AC133" s="47"/>
       <c r="AD133" s="40"/>
       <c r="AE133" s="40"/>
-      <c r="AF133" s="20"/>
-      <c r="AG133" s="20"/>
+      <c r="AF133" s="20">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AG133" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AH133" s="40"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="38"/>
       <c r="B134" s="39">
         <v>43955</v>
@@ -7893,11 +8388,17 @@
       <c r="AC134" s="47"/>
       <c r="AD134" s="40"/>
       <c r="AE134" s="40"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
+      <c r="AF134" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG134" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="AH134" s="40"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="39">
         <v>43956</v>
@@ -7939,11 +8440,17 @@
       <c r="AC135" s="47"/>
       <c r="AD135" s="40"/>
       <c r="AE135" s="40"/>
-      <c r="AF135" s="20"/>
-      <c r="AG135" s="20"/>
+      <c r="AF135" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG135" s="20">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
       <c r="AH135" s="40"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="38"/>
       <c r="B136" s="39">
         <v>43962</v>
@@ -7981,11 +8488,17 @@
       <c r="AC136" s="47"/>
       <c r="AD136" s="40"/>
       <c r="AE136" s="40"/>
-      <c r="AF136" s="20"/>
-      <c r="AG136" s="20"/>
+      <c r="AF136" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG136" s="20">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="AH136" s="40"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="38"/>
       <c r="B137" s="39">
         <v>43965</v>
@@ -8023,11 +8536,17 @@
       <c r="AC137" s="47"/>
       <c r="AD137" s="40"/>
       <c r="AE137" s="40"/>
-      <c r="AF137" s="20"/>
-      <c r="AG137" s="20"/>
+      <c r="AF137" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG137" s="20">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="AH137" s="40"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="38"/>
       <c r="B138" s="39">
         <v>43974</v>
@@ -8065,11 +8584,17 @@
       <c r="AC138" s="47"/>
       <c r="AD138" s="40"/>
       <c r="AE138" s="40"/>
-      <c r="AF138" s="20"/>
-      <c r="AG138" s="20"/>
+      <c r="AF138" s="20">
+        <f t="shared" ref="AF138:AF156" si="4">E138+G138+I138+K138+M138+O138+Q138+S138+U138+W138+Y138+AA138+AC138+AE138</f>
+        <v>0</v>
+      </c>
+      <c r="AG138" s="20">
+        <f t="shared" ref="AG138:AG157" si="5">D138+F138+H138+J138+L138+N138+P138+R138+T138+V138+X138+Z138+AB138+AD138</f>
+        <v>12</v>
+      </c>
       <c r="AH138" s="40"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="38"/>
       <c r="B139" s="39">
         <v>43975</v>
@@ -8113,8 +8638,14 @@
         <v>46</v>
       </c>
       <c r="AE139" s="40"/>
-      <c r="AF139" s="20"/>
-      <c r="AG139" s="20"/>
+      <c r="AF139" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG139" s="20">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
       <c r="AH139" s="40"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
@@ -8159,44 +8690,42 @@
         <v>17</v>
       </c>
       <c r="AE140" s="40"/>
-      <c r="AF140" s="20"/>
-      <c r="AG140" s="20"/>
+      <c r="AF140" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG140" s="20">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
       <c r="AH140" s="40"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="38"/>
       <c r="B141" s="39">
-        <v>43993</v>
+        <v>43974</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D141" s="41"/>
-      <c r="E141" s="41">
-        <v>2</v>
-      </c>
+      <c r="E141" s="41"/>
       <c r="F141" s="40"/>
-      <c r="G141" s="40">
-        <v>3</v>
-      </c>
+      <c r="G141" s="40"/>
       <c r="H141" s="42"/>
       <c r="I141" s="42"/>
       <c r="J141" s="40"/>
-      <c r="K141" s="40">
-        <v>2</v>
-      </c>
+      <c r="K141" s="40"/>
       <c r="L141" s="43"/>
       <c r="M141" s="43"/>
       <c r="N141" s="40"/>
       <c r="O141" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P141" s="44"/>
       <c r="Q141" s="44"/>
       <c r="R141" s="40"/>
-      <c r="S141" s="40">
-        <v>14</v>
-      </c>
+      <c r="S141" s="40"/>
       <c r="T141" s="45"/>
       <c r="U141" s="45"/>
       <c r="V141" s="40"/>
@@ -8204,89 +8733,87 @@
       <c r="X141" s="46"/>
       <c r="Y141" s="46"/>
       <c r="Z141" s="40"/>
-      <c r="AA141" s="40">
-        <v>2</v>
-      </c>
+      <c r="AA141" s="40"/>
       <c r="AB141" s="47"/>
-      <c r="AC141" s="47">
-        <v>8</v>
-      </c>
+      <c r="AC141" s="47"/>
       <c r="AD141" s="40"/>
       <c r="AE141" s="40"/>
-      <c r="AF141" s="20"/>
-      <c r="AG141" s="20"/>
+      <c r="AF141" s="20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AG141" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AH141" s="40"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="38"/>
       <c r="B142" s="39">
-        <v>43993</v>
+        <v>43976</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
+      <c r="E142" s="41">
+        <v>24</v>
+      </c>
       <c r="F142" s="40"/>
-      <c r="G142" s="40">
-        <v>1</v>
-      </c>
+      <c r="G142" s="40"/>
       <c r="H142" s="42"/>
       <c r="I142" s="42"/>
       <c r="J142" s="40"/>
-      <c r="K142" s="40">
-        <v>23</v>
-      </c>
+      <c r="K142" s="40"/>
       <c r="L142" s="43"/>
       <c r="M142" s="43"/>
       <c r="N142" s="40"/>
-      <c r="O142" s="40">
-        <v>40</v>
-      </c>
+      <c r="O142" s="40"/>
       <c r="P142" s="44"/>
       <c r="Q142" s="44"/>
       <c r="R142" s="40"/>
-      <c r="S142" s="40">
-        <v>74</v>
-      </c>
+      <c r="S142" s="40"/>
       <c r="T142" s="45"/>
       <c r="U142" s="45"/>
       <c r="V142" s="40"/>
-      <c r="W142" s="40">
-        <v>10</v>
-      </c>
+      <c r="W142" s="40"/>
       <c r="X142" s="46"/>
-      <c r="Y142" s="46">
-        <v>59</v>
-      </c>
+      <c r="Y142" s="46"/>
       <c r="Z142" s="40"/>
-      <c r="AA142" s="40">
-        <v>55</v>
-      </c>
+      <c r="AA142" s="40"/>
       <c r="AB142" s="47"/>
-      <c r="AC142" s="47">
-        <v>57</v>
-      </c>
+      <c r="AC142" s="47"/>
       <c r="AD142" s="40"/>
       <c r="AE142" s="40"/>
-      <c r="AF142" s="20"/>
-      <c r="AG142" s="20"/>
+      <c r="AF142" s="20">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AG142" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AH142" s="40"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="38"/>
       <c r="B143" s="39">
-        <v>43901</v>
+        <v>43981</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D143" s="41"/>
-      <c r="E143" s="41"/>
+      <c r="E143" s="41">
+        <v>2</v>
+      </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
       <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
+      <c r="I143" s="42">
+        <v>1</v>
+      </c>
       <c r="J143" s="40"/>
       <c r="K143" s="40"/>
       <c r="L143" s="43"/>
@@ -8307,28 +8834,29 @@
       <c r="AA143" s="40"/>
       <c r="AB143" s="47"/>
       <c r="AC143" s="47"/>
-      <c r="AD143" s="40">
-        <v>70</v>
-      </c>
+      <c r="AD143" s="40"/>
       <c r="AE143" s="40"/>
-      <c r="AF143" s="20"/>
-      <c r="AG143" s="20"/>
+      <c r="AF143" s="20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AG143" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AH143" s="40"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="39">
-        <v>43914</v>
+        <v>43982</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="41"/>
-      <c r="F144" s="40">
-        <f>60*12</f>
-        <v>720</v>
-      </c>
+      <c r="F144" s="40"/>
       <c r="G144" s="40"/>
       <c r="H144" s="42"/>
       <c r="I144" s="42"/>
@@ -8344,87 +8872,84 @@
       <c r="S144" s="40"/>
       <c r="T144" s="45"/>
       <c r="U144" s="45"/>
-      <c r="V144" s="40">
-        <v>120</v>
-      </c>
+      <c r="V144" s="40"/>
       <c r="W144" s="40"/>
-      <c r="X144" s="46">
-        <v>120</v>
-      </c>
+      <c r="X144" s="46"/>
       <c r="Y144" s="46"/>
-      <c r="Z144" s="40">
-        <v>120</v>
-      </c>
-      <c r="AA144" s="40"/>
-      <c r="AB144" s="47">
-        <v>240</v>
-      </c>
+      <c r="Z144" s="40"/>
+      <c r="AA144" s="40">
+        <v>2</v>
+      </c>
+      <c r="AB144" s="47"/>
       <c r="AC144" s="47"/>
       <c r="AD144" s="40"/>
       <c r="AE144" s="40"/>
-      <c r="AF144" s="20"/>
-      <c r="AG144" s="20"/>
+      <c r="AF144" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG144" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AH144" s="40"/>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="39">
-        <v>43955</v>
+        <v>43983</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D145" s="41">
-        <v>240</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D145" s="41"/>
       <c r="E145" s="41"/>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
       <c r="H145" s="42"/>
       <c r="I145" s="42"/>
-      <c r="J145" s="40">
-        <v>240</v>
-      </c>
+      <c r="J145" s="40"/>
       <c r="K145" s="40"/>
       <c r="L145" s="43"/>
       <c r="M145" s="43"/>
-      <c r="N145" s="40">
-        <v>120</v>
-      </c>
+      <c r="N145" s="40"/>
       <c r="O145" s="40"/>
       <c r="P145" s="44"/>
       <c r="Q145" s="44"/>
-      <c r="R145" s="40">
-        <v>240</v>
-      </c>
+      <c r="R145" s="40"/>
       <c r="S145" s="40"/>
       <c r="T145" s="45"/>
       <c r="U145" s="45"/>
       <c r="V145" s="40"/>
       <c r="W145" s="40"/>
       <c r="X145" s="46"/>
-      <c r="Y145" s="46"/>
-      <c r="Z145" s="40">
-        <v>120</v>
-      </c>
+      <c r="Y145" s="46">
+        <v>12</v>
+      </c>
+      <c r="Z145" s="40"/>
       <c r="AA145" s="40"/>
-      <c r="AB145" s="47">
-        <f>4*24</f>
-        <v>96</v>
-      </c>
+      <c r="AB145" s="47"/>
       <c r="AC145" s="47"/>
       <c r="AD145" s="40"/>
       <c r="AE145" s="40"/>
-      <c r="AF145" s="20"/>
-      <c r="AG145" s="20"/>
+      <c r="AF145" s="20">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AG145" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AH145" s="40"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A146" s="20">
-        <v>33</v>
-      </c>
-      <c r="B146" s="39"/>
-      <c r="C146" s="40"/>
+    <row r="146" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="38"/>
+      <c r="B146" s="39">
+        <v>46</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>110</v>
+      </c>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
       <c r="F146" s="40"/>
@@ -8446,29 +8971,35 @@
       <c r="V146" s="40"/>
       <c r="W146" s="40"/>
       <c r="X146" s="46"/>
-      <c r="Y146" s="46"/>
+      <c r="Y146" s="46">
+        <v>2</v>
+      </c>
       <c r="Z146" s="40"/>
       <c r="AA146" s="40"/>
       <c r="AB146" s="47"/>
-      <c r="AC146" s="47"/>
+      <c r="AC146" s="47">
+        <v>1</v>
+      </c>
       <c r="AD146" s="40"/>
       <c r="AE146" s="40"/>
       <c r="AF146" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="AG146" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH146" s="40"/>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A147" s="38">
-        <v>34</v>
-      </c>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="39">
+        <v>43986</v>
+      </c>
+      <c r="C147" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="D147" s="41"/>
       <c r="E147" s="41"/>
       <c r="F147" s="40"/>
@@ -8480,7 +9011,9 @@
       <c r="L147" s="43"/>
       <c r="M147" s="43"/>
       <c r="N147" s="40"/>
-      <c r="O147" s="40"/>
+      <c r="O147" s="40">
+        <v>12</v>
+      </c>
       <c r="P147" s="44"/>
       <c r="Q147" s="44"/>
       <c r="R147" s="40"/>
@@ -8498,265 +9031,812 @@
       <c r="AD147" s="40"/>
       <c r="AE147" s="40"/>
       <c r="AF147" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="AG147" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH147" s="40"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="50" t="s">
+      <c r="A148" s="38"/>
+      <c r="B148" s="39">
+        <v>43990</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="40">
+        <v>24</v>
+      </c>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="40"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="40"/>
+      <c r="O148" s="40"/>
+      <c r="P148" s="44"/>
+      <c r="Q148" s="44"/>
+      <c r="R148" s="40"/>
+      <c r="S148" s="40"/>
+      <c r="T148" s="45"/>
+      <c r="U148" s="45"/>
+      <c r="V148" s="40"/>
+      <c r="W148" s="40"/>
+      <c r="X148" s="46"/>
+      <c r="Y148" s="46"/>
+      <c r="Z148" s="40"/>
+      <c r="AA148" s="40"/>
+      <c r="AB148" s="47"/>
+      <c r="AC148" s="47"/>
+      <c r="AD148" s="40"/>
+      <c r="AE148" s="40"/>
+      <c r="AF148" s="20">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AG148" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH148" s="40"/>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A149" s="38"/>
+      <c r="B149" s="39">
+        <v>43990</v>
+      </c>
+      <c r="C149" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="40"/>
+      <c r="G149" s="40">
+        <v>9</v>
+      </c>
+      <c r="H149" s="42"/>
+      <c r="I149" s="42"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="40"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="40"/>
+      <c r="O149" s="40"/>
+      <c r="P149" s="44"/>
+      <c r="Q149" s="44"/>
+      <c r="R149" s="40"/>
+      <c r="S149" s="40"/>
+      <c r="T149" s="45"/>
+      <c r="U149" s="45"/>
+      <c r="V149" s="40"/>
+      <c r="W149" s="40"/>
+      <c r="X149" s="46"/>
+      <c r="Y149" s="46"/>
+      <c r="Z149" s="40"/>
+      <c r="AA149" s="40">
+        <v>3</v>
+      </c>
+      <c r="AB149" s="47"/>
+      <c r="AC149" s="47"/>
+      <c r="AD149" s="40"/>
+      <c r="AE149" s="40"/>
+      <c r="AF149" s="20">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AG149" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH149" s="40"/>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A150" s="38"/>
+      <c r="B150" s="39">
+        <v>43990</v>
+      </c>
+      <c r="C150" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41">
+        <v>72</v>
+      </c>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40">
+        <v>36</v>
+      </c>
+      <c r="H150" s="42"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="40">
+        <v>84</v>
+      </c>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="40"/>
+      <c r="O150" s="40">
+        <v>12</v>
+      </c>
+      <c r="P150" s="44"/>
+      <c r="Q150" s="44"/>
+      <c r="R150" s="40"/>
+      <c r="S150" s="40">
+        <v>60</v>
+      </c>
+      <c r="T150" s="45"/>
+      <c r="U150" s="45"/>
+      <c r="V150" s="40"/>
+      <c r="W150" s="40"/>
+      <c r="X150" s="46"/>
+      <c r="Y150" s="46">
+        <v>48</v>
+      </c>
+      <c r="Z150" s="40"/>
+      <c r="AA150" s="40">
+        <v>12</v>
+      </c>
+      <c r="AB150" s="47"/>
+      <c r="AC150" s="47">
+        <v>24</v>
+      </c>
+      <c r="AD150" s="40"/>
+      <c r="AE150" s="40"/>
+      <c r="AF150" s="20">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="AG150" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH150" s="40"/>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A151" s="38"/>
+      <c r="B151" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C151" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="41"/>
+      <c r="E151" s="41">
+        <v>2</v>
+      </c>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40">
+        <v>3</v>
+      </c>
+      <c r="H151" s="42"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40">
+        <v>2</v>
+      </c>
+      <c r="L151" s="43"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="40"/>
+      <c r="O151" s="40">
+        <v>2</v>
+      </c>
+      <c r="P151" s="44"/>
+      <c r="Q151" s="44"/>
+      <c r="R151" s="40"/>
+      <c r="S151" s="40">
+        <v>14</v>
+      </c>
+      <c r="T151" s="45"/>
+      <c r="U151" s="45"/>
+      <c r="V151" s="40"/>
+      <c r="W151" s="40"/>
+      <c r="X151" s="46"/>
+      <c r="Y151" s="46"/>
+      <c r="Z151" s="40"/>
+      <c r="AA151" s="40">
+        <v>2</v>
+      </c>
+      <c r="AB151" s="47"/>
+      <c r="AC151" s="47">
+        <v>8</v>
+      </c>
+      <c r="AD151" s="40"/>
+      <c r="AE151" s="40"/>
+      <c r="AF151" s="20">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="AG151" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH151" s="40"/>
+    </row>
+    <row r="152" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="38"/>
+      <c r="B152" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" s="41"/>
+      <c r="E152" s="41"/>
+      <c r="F152" s="40"/>
+      <c r="G152" s="40">
+        <v>1</v>
+      </c>
+      <c r="H152" s="42"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="40">
+        <v>23</v>
+      </c>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="40"/>
+      <c r="O152" s="40">
+        <v>40</v>
+      </c>
+      <c r="P152" s="44"/>
+      <c r="Q152" s="44"/>
+      <c r="R152" s="40"/>
+      <c r="S152" s="40">
+        <v>74</v>
+      </c>
+      <c r="T152" s="45"/>
+      <c r="U152" s="45"/>
+      <c r="V152" s="40"/>
+      <c r="W152" s="40">
+        <v>10</v>
+      </c>
+      <c r="X152" s="46"/>
+      <c r="Y152" s="46">
+        <v>59</v>
+      </c>
+      <c r="Z152" s="40"/>
+      <c r="AA152" s="40">
+        <v>55</v>
+      </c>
+      <c r="AB152" s="47"/>
+      <c r="AC152" s="47">
+        <v>57</v>
+      </c>
+      <c r="AD152" s="40"/>
+      <c r="AE152" s="40"/>
+      <c r="AF152" s="20">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="AG152" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH152" s="40"/>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A153" s="38"/>
+      <c r="B153" s="39">
+        <v>43993</v>
+      </c>
+      <c r="C153" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40">
+        <v>4</v>
+      </c>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40">
+        <v>3</v>
+      </c>
+      <c r="P153" s="44"/>
+      <c r="Q153" s="44"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40">
+        <v>3</v>
+      </c>
+      <c r="T153" s="45"/>
+      <c r="U153" s="45"/>
+      <c r="V153" s="40"/>
+      <c r="W153" s="40">
+        <v>3</v>
+      </c>
+      <c r="X153" s="46"/>
+      <c r="Y153" s="46">
+        <v>4</v>
+      </c>
+      <c r="Z153" s="40"/>
+      <c r="AA153" s="40">
+        <v>3</v>
+      </c>
+      <c r="AB153" s="47"/>
+      <c r="AC153" s="47">
+        <v>4</v>
+      </c>
+      <c r="AD153" s="40"/>
+      <c r="AE153" s="40"/>
+      <c r="AF153" s="20">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AG153" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH153" s="40"/>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A154" s="38"/>
+      <c r="B154" s="39">
+        <v>43901</v>
+      </c>
+      <c r="C154" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="40"/>
+      <c r="O154" s="40"/>
+      <c r="P154" s="44"/>
+      <c r="Q154" s="44"/>
+      <c r="R154" s="40"/>
+      <c r="S154" s="40"/>
+      <c r="T154" s="45"/>
+      <c r="U154" s="45"/>
+      <c r="V154" s="40"/>
+      <c r="W154" s="40"/>
+      <c r="X154" s="46"/>
+      <c r="Y154" s="46"/>
+      <c r="Z154" s="40"/>
+      <c r="AA154" s="40"/>
+      <c r="AB154" s="47"/>
+      <c r="AC154" s="47"/>
+      <c r="AD154" s="40">
+        <v>70</v>
+      </c>
+      <c r="AE154" s="40"/>
+      <c r="AF154" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG154" s="20">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="AH154" s="40"/>
+    </row>
+    <row r="155" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="38"/>
+      <c r="B155" s="39">
+        <v>43914</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="40">
+        <f>60*12</f>
+        <v>720</v>
+      </c>
+      <c r="G155" s="40"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="43"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="40"/>
+      <c r="O155" s="40"/>
+      <c r="P155" s="44"/>
+      <c r="Q155" s="44"/>
+      <c r="R155" s="40"/>
+      <c r="S155" s="40"/>
+      <c r="T155" s="45"/>
+      <c r="U155" s="45"/>
+      <c r="V155" s="40">
+        <v>120</v>
+      </c>
+      <c r="W155" s="40"/>
+      <c r="X155" s="46">
+        <v>120</v>
+      </c>
+      <c r="Y155" s="46"/>
+      <c r="Z155" s="40">
+        <v>120</v>
+      </c>
+      <c r="AA155" s="40"/>
+      <c r="AB155" s="47">
+        <v>240</v>
+      </c>
+      <c r="AC155" s="47"/>
+      <c r="AD155" s="40"/>
+      <c r="AE155" s="40"/>
+      <c r="AF155" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG155" s="20">
+        <f t="shared" si="5"/>
+        <v>1320</v>
+      </c>
+      <c r="AH155" s="40"/>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A156" s="38"/>
+      <c r="B156" s="39">
+        <v>43955</v>
+      </c>
+      <c r="C156" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D156" s="41">
+        <v>240</v>
+      </c>
+      <c r="E156" s="41"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="40">
+        <v>240</v>
+      </c>
+      <c r="K156" s="40"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="40">
+        <v>120</v>
+      </c>
+      <c r="O156" s="40"/>
+      <c r="P156" s="44"/>
+      <c r="Q156" s="44"/>
+      <c r="R156" s="40">
+        <v>240</v>
+      </c>
+      <c r="S156" s="40"/>
+      <c r="T156" s="45"/>
+      <c r="U156" s="45"/>
+      <c r="V156" s="40"/>
+      <c r="W156" s="40"/>
+      <c r="X156" s="46"/>
+      <c r="Y156" s="46"/>
+      <c r="Z156" s="40">
+        <v>120</v>
+      </c>
+      <c r="AA156" s="40"/>
+      <c r="AB156" s="47">
+        <f>4*24</f>
+        <v>96</v>
+      </c>
+      <c r="AC156" s="47"/>
+      <c r="AD156" s="40"/>
+      <c r="AE156" s="40"/>
+      <c r="AF156" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG156" s="20">
+        <f t="shared" si="5"/>
+        <v>1056</v>
+      </c>
+      <c r="AH156" s="40"/>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A157" s="48"/>
+      <c r="B157" s="49"/>
+      <c r="C157" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D148" s="77">
-        <f>SUM(D9:D147)-SUM(E9:E147)</f>
-        <v>128</v>
-      </c>
-      <c r="E148" s="77"/>
-      <c r="F148" s="64">
-        <f>SUM(F9:F147)-SUM(G9:G147)</f>
-        <v>93</v>
-      </c>
-      <c r="G148" s="64"/>
-      <c r="H148" s="78">
-        <f>SUM(H9:H147)-SUM(I9:I147)</f>
-        <v>75</v>
-      </c>
-      <c r="I148" s="78"/>
-      <c r="J148" s="64">
-        <f>SUM(J9:J147)-SUM(K9:K147)</f>
+      <c r="D157" s="75">
+        <f>SUM(D9:D156)-SUM(E9:E156)</f>
+        <v>30</v>
+      </c>
+      <c r="E157" s="75"/>
+      <c r="F157" s="94">
+        <f t="shared" ref="F157" si="6">SUM(F9:F156)-SUM(G9:G156)</f>
+        <v>24</v>
+      </c>
+      <c r="G157" s="95"/>
+      <c r="H157" s="94">
+        <f t="shared" ref="H157" si="7">SUM(H9:H156)-SUM(I9:I156)</f>
+        <v>74</v>
+      </c>
+      <c r="I157" s="95"/>
+      <c r="J157" s="94">
+        <f t="shared" ref="J157" si="8">SUM(J9:J156)-SUM(K9:K156)</f>
+        <v>-76</v>
+      </c>
+      <c r="K157" s="95"/>
+      <c r="L157" s="94">
+        <f t="shared" ref="L157" si="9">SUM(L9:L156)-SUM(M9:M156)</f>
+        <v>29</v>
+      </c>
+      <c r="M157" s="95"/>
+      <c r="N157" s="94">
+        <f t="shared" ref="N157" si="10">SUM(N9:N156)-SUM(O9:O156)</f>
+        <v>-76</v>
+      </c>
+      <c r="O157" s="95"/>
+      <c r="P157" s="94">
+        <f t="shared" ref="P157" si="11">SUM(P9:P156)-SUM(Q9:Q156)</f>
         <v>12</v>
       </c>
-      <c r="K148" s="64"/>
-      <c r="L148" s="79">
-        <f>SUM(L9:L147)-SUM(M9:M147)</f>
+      <c r="Q157" s="95"/>
+      <c r="R157" s="94">
+        <f t="shared" ref="R157" si="12">SUM(R9:R156)-SUM(S9:S156)</f>
+        <v>-44</v>
+      </c>
+      <c r="S157" s="95"/>
+      <c r="T157" s="94">
+        <f t="shared" ref="T157" si="13">SUM(T9:T156)-SUM(U9:U156)</f>
+        <v>62</v>
+      </c>
+      <c r="U157" s="95"/>
+      <c r="V157" s="94">
+        <f t="shared" ref="V157" si="14">SUM(V9:V156)-SUM(W9:W156)</f>
+        <v>-19</v>
+      </c>
+      <c r="W157" s="95"/>
+      <c r="X157" s="94">
+        <f t="shared" ref="X157" si="15">SUM(X9:X156)-SUM(Y9:Y156)</f>
+        <v>282</v>
+      </c>
+      <c r="Y157" s="95"/>
+      <c r="Z157" s="94">
+        <f t="shared" ref="Z157" si="16">SUM(Z9:Z156)-SUM(AA9:AA156)</f>
+        <v>25</v>
+      </c>
+      <c r="AA157" s="95"/>
+      <c r="AB157" s="94">
+        <f t="shared" ref="AB157" si="17">SUM(AB9:AB156)-SUM(AC9:AC156)</f>
+        <v>-93</v>
+      </c>
+      <c r="AC157" s="95"/>
+      <c r="AD157" s="94">
+        <f t="shared" ref="AD157" si="18">SUM(AD9:AD156)-SUM(AE9:AE156)</f>
+        <v>88</v>
+      </c>
+      <c r="AE157" s="95"/>
+      <c r="AF157" s="20">
+        <f t="shared" ref="AF10:AF157" si="19">E157+G157+I157+K157+M157+O157+Q157+S157+U157+W157+Y157+AA157+AC157+AE157</f>
+        <v>0</v>
+      </c>
+      <c r="AG157" s="20">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="AH157" s="51"/>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A158" s="48"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="M148" s="79"/>
-      <c r="N148" s="64">
-        <f>SUM(N9:N147)-SUM(O9:O147)</f>
-        <v>-44</v>
-      </c>
-      <c r="O148" s="64"/>
-      <c r="P148" s="70">
-        <f>SUM(P9:P147)-SUM(Q9:Q147)</f>
-        <v>12</v>
-      </c>
-      <c r="Q148" s="70"/>
-      <c r="R148" s="64">
-        <f>SUM(R9:R147)-SUM(S9:S147)</f>
-        <v>19</v>
-      </c>
-      <c r="S148" s="64"/>
-      <c r="T148" s="71">
-        <f>SUM(T9:T147)-SUM(U9:U147)</f>
-        <v>62</v>
-      </c>
-      <c r="U148" s="71"/>
-      <c r="V148" s="64">
-        <f>SUM(V9:V147)-SUM(W9:W147)</f>
-        <v>-16</v>
-      </c>
-      <c r="W148" s="64"/>
-      <c r="X148" s="72">
-        <f>SUM(X9:X147)-SUM(Y9:Y147)</f>
-        <v>348</v>
-      </c>
-      <c r="Y148" s="72"/>
-      <c r="Z148" s="64">
-        <f>SUM(Z9:Z147)-SUM(AA9:AA147)</f>
-        <v>45</v>
-      </c>
-      <c r="AA148" s="64"/>
-      <c r="AB148" s="65">
-        <f>SUM(AB9:AB147)-SUM(AC9:AC147)</f>
-        <v>-64</v>
-      </c>
-      <c r="AC148" s="65"/>
-      <c r="AD148" s="64">
-        <f>SUM(AD9:AD147)-SUM(AE9:AE147)</f>
-        <v>88</v>
-      </c>
-      <c r="AE148" s="64"/>
-      <c r="AF148" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG148" s="20">
-        <f>D148+F148+H148+J148+L148+N148+P148+R148+T148+V148+X148+Z148+AB148+AD148</f>
-        <v>787</v>
-      </c>
-      <c r="AH148" s="51"/>
-    </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="49"/>
-      <c r="C149" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D149" s="66">
-        <f>D148/24</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="E149" s="66"/>
-      <c r="F149" s="61">
-        <f>F148/12</f>
-        <v>7.75</v>
-      </c>
-      <c r="G149" s="61"/>
-      <c r="H149" s="67">
-        <f>H148/24</f>
-        <v>3.125</v>
-      </c>
-      <c r="I149" s="67"/>
-      <c r="J149" s="61">
-        <f>J148/12</f>
-        <v>1</v>
-      </c>
-      <c r="K149" s="61"/>
-      <c r="L149" s="68">
-        <f>L148/24</f>
+      <c r="D158" s="80">
+        <f>D157/24</f>
+        <v>1.25</v>
+      </c>
+      <c r="E158" s="80"/>
+      <c r="F158" s="81">
+        <f>F157/12</f>
+        <v>2</v>
+      </c>
+      <c r="G158" s="81"/>
+      <c r="H158" s="82">
+        <f>H157/24</f>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="I158" s="82"/>
+      <c r="J158" s="81">
+        <f>J157/12</f>
+        <v>-6.333333333333333</v>
+      </c>
+      <c r="K158" s="81"/>
+      <c r="L158" s="83">
+        <f>L157/24</f>
         <v>1.2083333333333333</v>
       </c>
-      <c r="M149" s="68"/>
-      <c r="N149" s="61">
-        <f>N148/12</f>
+      <c r="M158" s="83"/>
+      <c r="N158" s="81">
+        <f>N157/12</f>
+        <v>-6.333333333333333</v>
+      </c>
+      <c r="O158" s="81"/>
+      <c r="P158" s="84">
+        <f>P157/24</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q158" s="84"/>
+      <c r="R158" s="81">
+        <f>R157/12</f>
         <v>-3.6666666666666665</v>
       </c>
-      <c r="O149" s="61"/>
-      <c r="P149" s="69">
-        <f>P148/24</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q149" s="69"/>
-      <c r="R149" s="61">
-        <f>R148/12</f>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="S149" s="61"/>
-      <c r="T149" s="60">
-        <f>T148/24</f>
+      <c r="S158" s="81"/>
+      <c r="T158" s="90">
+        <f>T157/24</f>
         <v>2.5833333333333335</v>
       </c>
-      <c r="U149" s="60"/>
-      <c r="V149" s="61">
-        <f>V148/12</f>
-        <v>-1.3333333333333333</v>
-      </c>
-      <c r="W149" s="61"/>
-      <c r="X149" s="62">
-        <f>X148/12</f>
-        <v>29</v>
-      </c>
-      <c r="Y149" s="62"/>
-      <c r="Z149" s="61">
-        <f>Z148/12</f>
-        <v>3.75</v>
-      </c>
-      <c r="AA149" s="61"/>
-      <c r="AB149" s="63">
-        <f>AB148/24</f>
-        <v>-2.6666666666666665</v>
-      </c>
-      <c r="AC149" s="63"/>
-      <c r="AD149" s="64"/>
-      <c r="AE149" s="64"/>
-      <c r="AF149" s="20"/>
-      <c r="AG149" s="20"/>
-      <c r="AH149" s="51"/>
-    </row>
-    <row r="150" spans="1:34" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="55" t="s">
+      <c r="U158" s="90"/>
+      <c r="V158" s="81">
+        <f>V157/12</f>
+        <v>-1.5833333333333333</v>
+      </c>
+      <c r="W158" s="81"/>
+      <c r="X158" s="91">
+        <f>X157/12</f>
+        <v>23.5</v>
+      </c>
+      <c r="Y158" s="91"/>
+      <c r="Z158" s="81">
+        <f>Z157/12</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="AA158" s="81"/>
+      <c r="AB158" s="92">
+        <f>AB157/24</f>
+        <v>-3.875</v>
+      </c>
+      <c r="AC158" s="92"/>
+      <c r="AD158" s="76"/>
+      <c r="AE158" s="76"/>
+      <c r="AF158" s="20"/>
+      <c r="AG158" s="20"/>
+      <c r="AH158" s="51"/>
+    </row>
+    <row r="159" spans="1:34" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B150" s="56"/>
-      <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="56"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="56"/>
-      <c r="L150" s="56"/>
-      <c r="M150" s="56"/>
-      <c r="N150" s="56"/>
-      <c r="O150" s="56"/>
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
-      <c r="R150" s="56"/>
-      <c r="S150" s="56"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
-      <c r="V150" s="56"/>
-      <c r="W150" s="56"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
-      <c r="AB150" s="56"/>
-      <c r="AC150" s="56"/>
-      <c r="AD150" s="56"/>
-      <c r="AE150" s="57"/>
-      <c r="AF150" s="52">
-        <f>SUM(AF9:AF147)</f>
-        <v>1052</v>
-      </c>
-      <c r="AG150" s="52">
-        <f>SUM(AG9:AG147)</f>
-        <v>999</v>
-      </c>
-      <c r="AH150" s="53"/>
-    </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A151" s="55" t="s">
+      <c r="B159" s="86"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="86"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="86"/>
+      <c r="G159" s="86"/>
+      <c r="H159" s="86"/>
+      <c r="I159" s="86"/>
+      <c r="J159" s="86"/>
+      <c r="K159" s="86"/>
+      <c r="L159" s="86"/>
+      <c r="M159" s="86"/>
+      <c r="N159" s="86"/>
+      <c r="O159" s="86"/>
+      <c r="P159" s="86"/>
+      <c r="Q159" s="86"/>
+      <c r="R159" s="86"/>
+      <c r="S159" s="86"/>
+      <c r="T159" s="86"/>
+      <c r="U159" s="86"/>
+      <c r="V159" s="86"/>
+      <c r="W159" s="86"/>
+      <c r="X159" s="86"/>
+      <c r="Y159" s="86"/>
+      <c r="Z159" s="86"/>
+      <c r="AA159" s="86"/>
+      <c r="AB159" s="86"/>
+      <c r="AC159" s="86"/>
+      <c r="AD159" s="86"/>
+      <c r="AE159" s="87"/>
+      <c r="AF159" s="52">
+        <f>SUM(AF9:AF156)</f>
+        <v>3670</v>
+      </c>
+      <c r="AG159" s="52">
+        <f>SUM(AG9:AG156)</f>
+        <v>3988</v>
+      </c>
+      <c r="AH159" s="53"/>
+    </row>
+    <row r="160" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="56"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="56"/>
-      <c r="P151" s="56"/>
-      <c r="Q151" s="56"/>
-      <c r="R151" s="56"/>
-      <c r="S151" s="56"/>
-      <c r="T151" s="56"/>
-      <c r="U151" s="56"/>
-      <c r="V151" s="56"/>
-      <c r="W151" s="56"/>
-      <c r="X151" s="56"/>
-      <c r="Y151" s="56"/>
-      <c r="Z151" s="56"/>
-      <c r="AA151" s="56"/>
-      <c r="AB151" s="56"/>
-      <c r="AC151" s="56"/>
-      <c r="AD151" s="56"/>
-      <c r="AE151" s="57"/>
-      <c r="AF151" s="58">
-        <f>AG150-AF150</f>
-        <v>-53</v>
-      </c>
-      <c r="AG151" s="59"/>
-      <c r="AH151" s="53"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
+      <c r="E160" s="86"/>
+      <c r="F160" s="86"/>
+      <c r="G160" s="86"/>
+      <c r="H160" s="86"/>
+      <c r="I160" s="86"/>
+      <c r="J160" s="86"/>
+      <c r="K160" s="86"/>
+      <c r="L160" s="86"/>
+      <c r="M160" s="86"/>
+      <c r="N160" s="86"/>
+      <c r="O160" s="86"/>
+      <c r="P160" s="86"/>
+      <c r="Q160" s="86"/>
+      <c r="R160" s="86"/>
+      <c r="S160" s="86"/>
+      <c r="T160" s="86"/>
+      <c r="U160" s="86"/>
+      <c r="V160" s="86"/>
+      <c r="W160" s="86"/>
+      <c r="X160" s="86"/>
+      <c r="Y160" s="86"/>
+      <c r="Z160" s="86"/>
+      <c r="AA160" s="86"/>
+      <c r="AB160" s="86"/>
+      <c r="AC160" s="86"/>
+      <c r="AD160" s="86"/>
+      <c r="AE160" s="87"/>
+      <c r="AF160" s="88">
+        <f>AG159-AF159</f>
+        <v>318</v>
+      </c>
+      <c r="AG160" s="89"/>
+      <c r="AH160" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A159:AE159"/>
+    <mergeCell ref="A160:AE160"/>
+    <mergeCell ref="AF160:AG160"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="V158:W158"/>
+    <mergeCell ref="X158:Y158"/>
+    <mergeCell ref="Z158:AA158"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AD158:AE158"/>
+    <mergeCell ref="AB157:AC157"/>
+    <mergeCell ref="AD157:AE157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="P158:Q158"/>
+    <mergeCell ref="R158:S158"/>
+    <mergeCell ref="P157:Q157"/>
+    <mergeCell ref="R157:S157"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="V157:W157"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="Z157:AA157"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8773,47 +9853,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB148:AC148"/>
-    <mergeCell ref="AD148:AE148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="P149:Q149"/>
-    <mergeCell ref="R149:S149"/>
-    <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="R148:S148"/>
-    <mergeCell ref="T148:U148"/>
-    <mergeCell ref="V148:W148"/>
-    <mergeCell ref="X148:Y148"/>
-    <mergeCell ref="Z148:AA148"/>
-    <mergeCell ref="A150:AE150"/>
-    <mergeCell ref="A151:AE151"/>
-    <mergeCell ref="AF151:AG151"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="V149:W149"/>
-    <mergeCell ref="X149:Y149"/>
-    <mergeCell ref="Z149:AA149"/>
-    <mergeCell ref="AB149:AC149"/>
-    <mergeCell ref="AD149:AE149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8824,308 +9863,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="10.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="6"/>
+    <col min="4" max="4" width="8.109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95" t="s">
+    <row r="6" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="55">
         <v>-12</v>
       </c>
-      <c r="C7" s="94">
-        <v>128</v>
-      </c>
-      <c r="D7" s="94">
+      <c r="C7" s="55">
+        <v>30</v>
+      </c>
+      <c r="D7" s="55">
         <v>70</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="55">
         <f>D7-C7</f>
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="55">
         <v>141</v>
       </c>
-      <c r="C8" s="94">
-        <v>93</v>
-      </c>
-      <c r="D8" s="94">
-        <v>0</v>
-      </c>
-      <c r="E8" s="94">
+      <c r="C8" s="55">
+        <v>24</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
         <f t="shared" ref="E8:E20" si="0">D8-C8</f>
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="55">
         <v>75</v>
       </c>
-      <c r="C9" s="94">
-        <v>75</v>
-      </c>
-      <c r="D9" s="94">
+      <c r="C9" s="55">
+        <v>74</v>
+      </c>
+      <c r="D9" s="55">
         <v>10</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="55">
         <f t="shared" si="0"/>
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="55">
         <v>30</v>
       </c>
-      <c r="C10" s="94">
-        <v>12</v>
-      </c>
-      <c r="D10" s="94">
+      <c r="C10" s="55">
+        <v>-76</v>
+      </c>
+      <c r="D10" s="55">
         <v>2</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="55">
         <v>15</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="55">
         <v>29</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="55">
         <v>14</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="55">
         <v>-26</v>
       </c>
-      <c r="C12" s="94">
-        <v>-44</v>
-      </c>
-      <c r="D12" s="94">
-        <v>1</v>
-      </c>
-      <c r="E12" s="94">
+      <c r="C12" s="55">
+        <v>-76</v>
+      </c>
+      <c r="D12" s="55">
+        <v>1</v>
+      </c>
+      <c r="E12" s="55">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="55">
         <v>13</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="55">
         <v>12</v>
       </c>
-      <c r="D13" s="94">
-        <v>1</v>
-      </c>
-      <c r="E13" s="94">
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+      <c r="E13" s="55">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="55">
         <v>188</v>
       </c>
-      <c r="C14" s="94">
-        <v>19</v>
-      </c>
-      <c r="D14" s="94">
+      <c r="C14" s="55">
+        <v>-44</v>
+      </c>
+      <c r="D14" s="55">
         <v>5</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="55">
         <f t="shared" si="0"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="55">
         <v>52</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="55">
         <v>62</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="55">
         <v>8</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="55">
         <f t="shared" si="0"/>
         <v>-54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B16" s="55">
         <v>60</v>
       </c>
-      <c r="C16" s="94">
-        <v>-16</v>
-      </c>
-      <c r="D16" s="94">
+      <c r="C16" s="55">
+        <v>-19</v>
+      </c>
+      <c r="D16" s="55">
         <v>12</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="55">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="94">
+      <c r="B17" s="55">
         <v>-173</v>
       </c>
-      <c r="C17" s="94">
-        <v>-64</v>
-      </c>
-      <c r="D17" s="94">
+      <c r="C17" s="55">
+        <v>-93</v>
+      </c>
+      <c r="D17" s="55">
         <v>84</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="55">
         <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="94">
+      <c r="B18" s="55">
         <v>427</v>
       </c>
-      <c r="C18" s="94">
-        <v>348</v>
-      </c>
-      <c r="D18" s="94">
+      <c r="C18" s="55">
+        <v>282</v>
+      </c>
+      <c r="D18" s="55">
         <v>128</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="55">
         <f t="shared" si="0"/>
-        <v>-220</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="55">
         <v>28</v>
       </c>
-      <c r="C19" s="94">
-        <v>45</v>
-      </c>
-      <c r="D19" s="94">
+      <c r="C19" s="55">
+        <v>25</v>
+      </c>
+      <c r="D19" s="55">
         <v>12</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="55">
         <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="94">
+      <c r="B20" s="55">
         <v>-32</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="55">
         <v>88</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="55">
         <v>137</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="55">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58">
         <f>SUM(B7:B20)</f>
         <v>786</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C21" s="58">
         <f>SUM(C7:C20)</f>
-        <v>787</v>
-      </c>
-      <c r="D21" s="97">
+        <v>318</v>
+      </c>
+      <c r="D21" s="58">
         <f>SUM(D7:D20)</f>
         <v>484</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="96">
         <f>SUM(E7:E20)</f>
-        <v>-303</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9133,151 +10172,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-    </row>
-    <row r="6" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B6" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="94"/>
-      <c r="D7" s="95" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+    </row>
+    <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="55">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="55">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="55">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="55">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="55">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="55">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="55">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="55">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="96"/>
-      <c r="D22" s="97">
+    <row r="22" spans="3:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="57"/>
+      <c r="D22" s="58">
         <v>484</v>
       </c>
     </row>
